--- a/generators/errors.xlsx
+++ b/generators/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F605"/>
+  <dimension ref="A1:F610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26380,6 +26380,126 @@
       </c>
       <c r="F605" t="inlineStr"/>
     </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>2024-01-21T16:00:46.670</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>2024-01-21T16:00:48.380</t>
+        </is>
+      </c>
+      <c r="E607" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>2024-01-21T16:01:47.679</t>
+        </is>
+      </c>
+      <c r="E608" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>2024-01-21T16:03:22.697</t>
+        </is>
+      </c>
+      <c r="E609" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-21–16:04-kQMhlaV4kJdkTWd</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>2024-01-21T16:04:20.535</t>
+        </is>
+      </c>
+      <c r="E610" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F610" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generators/errors.xlsx
+++ b/generators/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F623"/>
+  <dimension ref="A1:F628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24925,309 +24925,323 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
+          <t>testVersion-V02-24-01-18–14:53-GIyhuiNMa5KNsMp</t>
+        </is>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
+        </is>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)
+    at Object.c (https://felpower.github.io/main.dart.js:5227:19)
+    at https://felpower.github.io/main.dart.js:87557:15
+    at aLR.a (https://felpower.github.io/main.dart.js:6574:63)
+    at aLR.$2 (https://felpower.github.io/main.dart.js:49109:14)
+    at aKO.$1 (https://felpower.github.io/main.dart.js:49103:21)
+    at Object.aLK (https://felpower.github.io/main.dart.js:6799:19)
+    at Yv.&lt;anonymous&gt; (https://felpower.github.io/main.dart.js:113132:10)
+    at a0H.r_ (https://felpower.github.io/main.dart.js:49922:12)
+    at aC4.$0 (https://felpower.github.io/main.dart.js:49471:11)
+    at Object.Bq (https://felpower.github.io/main.dart.js:6683:40)</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>2024-01-24T13:19:59.554</t>
+        </is>
+      </c>
+      <c r="E547" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F547" t="inlineStr"/>
+    </row>
+    <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B547" t="inlineStr">
+      <c r="B548" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C547" t="inlineStr"/>
-      <c r="D547" t="inlineStr">
+      <c r="C548" t="inlineStr"/>
+      <c r="D548" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.806</t>
         </is>
       </c>
-      <c r="E547" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F547" t="inlineStr"/>
-    </row>
-    <row r="548">
-      <c r="A548" t="inlineStr">
+      <c r="E548" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F548" t="inlineStr"/>
+    </row>
+    <row r="549">
+      <c r="A549" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B548" t="inlineStr">
+      <c r="B549" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C548" t="inlineStr"/>
-      <c r="D548" t="inlineStr">
+      <c r="C549" t="inlineStr"/>
+      <c r="D549" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.833</t>
         </is>
       </c>
-      <c r="E548" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F548" t="inlineStr"/>
-    </row>
-    <row r="549">
-      <c r="A549" t="inlineStr">
+      <c r="E549" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B549" t="inlineStr">
+      <c r="B550" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C549" t="inlineStr"/>
-      <c r="D549" t="inlineStr">
+      <c r="C550" t="inlineStr"/>
+      <c r="D550" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.855</t>
         </is>
       </c>
-      <c r="E549" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F549" t="inlineStr"/>
-    </row>
-    <row r="550">
-      <c r="A550" t="inlineStr">
+      <c r="E550" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F550" t="inlineStr"/>
+    </row>
+    <row r="551">
+      <c r="A551" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B550" t="inlineStr">
+      <c r="B551" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C550" t="inlineStr"/>
-      <c r="D550" t="inlineStr">
+      <c r="C551" t="inlineStr"/>
+      <c r="D551" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.874</t>
         </is>
       </c>
-      <c r="E550" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F550" t="inlineStr"/>
-    </row>
-    <row r="551">
-      <c r="A551" t="inlineStr">
+      <c r="E551" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F551" t="inlineStr"/>
+    </row>
+    <row r="552">
+      <c r="A552" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B551" t="inlineStr">
+      <c r="B552" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C551" t="inlineStr"/>
-      <c r="D551" t="inlineStr">
+      <c r="C552" t="inlineStr"/>
+      <c r="D552" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.894</t>
         </is>
       </c>
-      <c r="E551" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F551" t="inlineStr"/>
-    </row>
-    <row r="552">
-      <c r="A552" t="inlineStr">
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B552" t="inlineStr">
+      <c r="B553" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
+      <c r="C553" t="inlineStr"/>
+      <c r="D553" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.910</t>
         </is>
       </c>
-      <c r="E552" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B553" t="inlineStr">
+      <c r="B554" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.928</t>
         </is>
       </c>
-      <c r="E553" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
+      <c r="E554" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B554" t="inlineStr">
+      <c r="B555" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.945</t>
         </is>
       </c>
-      <c r="E554" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
+      <c r="E555" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr">
+      <c r="B556" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:14.026</t>
         </is>
       </c>
-      <c r="E555" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
+      <c r="E556" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B556" t="inlineStr">
+      <c r="B557" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:14.044</t>
         </is>
       </c>
-      <c r="E556" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
+      <c r="E557" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B557" t="inlineStr">
+      <c r="B558" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
-        <is>
-          <t>2024-01-18T19:09:27.821</t>
-        </is>
-      </c>
-      <c r="E557" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
-        </is>
-      </c>
-      <c r="B558" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
       <c r="C558" t="inlineStr"/>
       <c r="D558" t="inlineStr">
         <is>
-          <t>2024-01-19T10:44:29.244</t>
+          <t>2024-01-18T19:09:27.821</t>
         </is>
       </c>
       <c r="E558" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
       <c r="F558" t="inlineStr"/>
@@ -25235,452 +25249,476 @@
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
+          <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
+        </is>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>2024-01-19T10:44:29.244</t>
+        </is>
+      </c>
+      <c r="E559" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B559" t="inlineStr">
+      <c r="B560" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
         <is>
           <t>2024-01-19T11:22:48.340</t>
         </is>
       </c>
-      <c r="E559" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
+      <c r="E560" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr">
+      <c r="B561" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.664</t>
         </is>
       </c>
-      <c r="E560" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
+      <c r="E561" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B561" t="inlineStr">
+      <c r="B562" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.699</t>
         </is>
       </c>
-      <c r="E561" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
+      <c r="E562" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B562" t="inlineStr">
+      <c r="B563" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.725</t>
         </is>
       </c>
-      <c r="E562" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
+      <c r="E563" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B563" t="inlineStr">
+      <c r="B564" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C563" t="inlineStr"/>
-      <c r="D563" t="inlineStr">
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.751</t>
         </is>
       </c>
-      <c r="E563" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
+      <c r="E564" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr">
+      <c r="B565" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
+      <c r="C565" t="inlineStr"/>
+      <c r="D565" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.785</t>
         </is>
       </c>
-      <c r="E564" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
+      <c r="E565" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B565" t="inlineStr">
+      <c r="B566" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C565" t="inlineStr"/>
-      <c r="D565" t="inlineStr">
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.826</t>
         </is>
       </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
+      <c r="E566" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B566" t="inlineStr">
+      <c r="B567" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
+      <c r="C567" t="inlineStr"/>
+      <c r="D567" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.873</t>
         </is>
       </c>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
+      <c r="E567" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F567" t="inlineStr"/>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B567" t="inlineStr">
+      <c r="B568" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
+      <c r="C568" t="inlineStr"/>
+      <c r="D568" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.909</t>
         </is>
       </c>
-      <c r="E567" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F567" t="inlineStr"/>
-    </row>
-    <row r="568">
-      <c r="A568" t="inlineStr">
+      <c r="E568" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F568" t="inlineStr"/>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B568" t="inlineStr">
+      <c r="B569" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C568" t="inlineStr"/>
-      <c r="D568" t="inlineStr">
+      <c r="C569" t="inlineStr"/>
+      <c r="D569" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.940</t>
         </is>
       </c>
-      <c r="E568" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F568" t="inlineStr"/>
-    </row>
-    <row r="569">
-      <c r="A569" t="inlineStr">
+      <c r="E569" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F569" t="inlineStr"/>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B569" t="inlineStr">
+      <c r="B570" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C569" t="inlineStr"/>
-      <c r="D569" t="inlineStr">
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.969</t>
         </is>
       </c>
-      <c r="E569" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F569" t="inlineStr"/>
-    </row>
-    <row r="570">
-      <c r="A570" t="inlineStr">
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B570" t="inlineStr">
+      <c r="B571" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.995</t>
         </is>
       </c>
-      <c r="E570" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr">
+      <c r="B572" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.023</t>
         </is>
       </c>
-      <c r="E571" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
+      <c r="E572" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr">
+      <c r="B573" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr">
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.052</t>
         </is>
       </c>
-      <c r="E572" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
+      <c r="E573" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr">
+      <c r="B574" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.081</t>
         </is>
       </c>
-      <c r="E573" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
+      <c r="E574" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr">
+      <c r="B575" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.110</t>
         </is>
       </c>
-      <c r="E574" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr">
+      <c r="B576" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr">
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.137</t>
         </is>
       </c>
-      <c r="E575" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:27-vTRj0AXBw173wcs</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr">
+      <c r="B577" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25688,26 +25726,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr">
         <is>
           <t>2024-01-19T11:35:19.335</t>
         </is>
       </c>
-      <c r="E576" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B577" t="inlineStr">
+      <c r="B578" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25715,26 +25753,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:18.401</t>
         </is>
       </c>
-      <c r="E577" t="inlineStr">
+      <c r="E578" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
+      <c r="F578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr">
+      <c r="B579" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25742,26 +25780,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:30.441</t>
         </is>
       </c>
-      <c r="E578" t="inlineStr">
+      <c r="E579" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
+      <c r="F579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr">
+      <c r="B580" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25769,26 +25807,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:32.813</t>
         </is>
       </c>
-      <c r="E579" t="inlineStr">
+      <c r="E580" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
+      <c r="F580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr">
+      <c r="B581" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25796,26 +25834,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:40.633</t>
         </is>
       </c>
-      <c r="E580" t="inlineStr">
+      <c r="E581" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
+      <c r="F581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr">
+      <c r="B582" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25823,26 +25861,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:08.006</t>
         </is>
       </c>
-      <c r="E581" t="inlineStr">
+      <c r="E582" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
+      <c r="F582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B582" t="inlineStr">
+      <c r="B583" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25850,26 +25888,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:16.219</t>
         </is>
       </c>
-      <c r="E582" t="inlineStr">
+      <c r="E583" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
+      <c r="F583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr">
+      <c r="B584" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25877,26 +25915,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:20.309</t>
         </is>
       </c>
-      <c r="E583" t="inlineStr">
+      <c r="E584" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
+      <c r="F584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr">
+      <c r="B585" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -25904,754 +25942,754 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:28.653</t>
         </is>
       </c>
-      <c r="E584" t="inlineStr">
+      <c r="E585" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
+      <c r="F585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr">
+      <c r="B586" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.454</t>
         </is>
       </c>
-      <c r="E585" t="inlineStr">
+      <c r="E586" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
+      <c r="F586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B586" t="inlineStr">
+      <c r="B587" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.488</t>
         </is>
       </c>
-      <c r="E586" t="inlineStr">
+      <c r="E587" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
+      <c r="F587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B587" t="inlineStr">
+      <c r="B588" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.515</t>
         </is>
       </c>
-      <c r="E587" t="inlineStr">
+      <c r="E588" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
+      <c r="F588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr">
+      <c r="B589" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.557</t>
         </is>
       </c>
-      <c r="E588" t="inlineStr">
+      <c r="E589" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
+      <c r="F589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B589" t="inlineStr">
+      <c r="B590" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.581</t>
         </is>
       </c>
-      <c r="E589" t="inlineStr">
+      <c r="E590" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
+      <c r="F590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr">
+      <c r="B591" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.610</t>
         </is>
       </c>
-      <c r="E590" t="inlineStr">
+      <c r="E591" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
+      <c r="F591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr">
+      <c r="B592" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.634</t>
         </is>
       </c>
-      <c r="E591" t="inlineStr">
+      <c r="E592" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
+      <c r="F592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B592" t="inlineStr">
+      <c r="B593" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.661</t>
         </is>
       </c>
-      <c r="E592" t="inlineStr">
+      <c r="E593" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
+      <c r="F593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B593" t="inlineStr">
+      <c r="B594" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.688</t>
         </is>
       </c>
-      <c r="E593" t="inlineStr">
+      <c r="E594" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
+      <c r="F594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B594" t="inlineStr">
+      <c r="B595" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.720</t>
         </is>
       </c>
-      <c r="E594" t="inlineStr">
+      <c r="E595" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
+      <c r="F595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B595" t="inlineStr">
+      <c r="B596" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.742</t>
         </is>
       </c>
-      <c r="E595" t="inlineStr">
+      <c r="E596" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
+      <c r="F596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B596" t="inlineStr">
+      <c r="B597" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.764</t>
         </is>
       </c>
-      <c r="E596" t="inlineStr">
+      <c r="E597" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
+      <c r="F597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B597" t="inlineStr">
+      <c r="B598" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.784</t>
         </is>
       </c>
-      <c r="E597" t="inlineStr">
+      <c r="E598" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
+      <c r="F598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B598" t="inlineStr">
+      <c r="B599" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.806</t>
         </is>
       </c>
-      <c r="E598" t="inlineStr">
+      <c r="E599" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
+      <c r="F599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B599" t="inlineStr">
+      <c r="B600" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr">
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.830</t>
         </is>
       </c>
-      <c r="E599" t="inlineStr">
+      <c r="E600" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
+      <c r="F600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr">
+      <c r="B601" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.855</t>
         </is>
       </c>
-      <c r="E600" t="inlineStr">
+      <c r="E601" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
+      <c r="F601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr">
+      <c r="B602" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr">
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.885</t>
         </is>
       </c>
-      <c r="E601" t="inlineStr">
+      <c r="E602" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
+      <c r="F602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B602" t="inlineStr">
+      <c r="B603" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.911</t>
         </is>
       </c>
-      <c r="E602" t="inlineStr">
+      <c r="E603" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
+      <c r="F603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr">
+      <c r="B604" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.939</t>
         </is>
       </c>
-      <c r="E603" t="inlineStr">
+      <c r="E604" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
+      <c r="F604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr">
+      <c r="B605" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.967</t>
         </is>
       </c>
-      <c r="E604" t="inlineStr">
+      <c r="E605" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
+      <c r="F605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B605" t="inlineStr">
+      <c r="B606" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.992</t>
         </is>
       </c>
-      <c r="E605" t="inlineStr">
+      <c r="E606" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
+      <c r="F606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr">
+      <c r="B607" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.018</t>
         </is>
       </c>
-      <c r="E606" t="inlineStr">
+      <c r="E607" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
+      <c r="F607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B607" t="inlineStr">
+      <c r="B608" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.047</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr">
+      <c r="E608" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
+      <c r="F608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr">
+      <c r="B609" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.148</t>
         </is>
       </c>
-      <c r="E608" t="inlineStr">
+      <c r="E609" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
+      <c r="F609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B609" t="inlineStr">
+      <c r="B610" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.177</t>
         </is>
       </c>
-      <c r="E609" t="inlineStr">
+      <c r="E610" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
+      <c r="F610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr">
+      <c r="B611" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.211</t>
         </is>
       </c>
-      <c r="E610" t="inlineStr">
+      <c r="E611" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
+      <c r="F611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr">
+      <c r="B612" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:11.054</t>
         </is>
       </c>
-      <c r="E611" t="inlineStr">
+      <c r="E612" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
+      <c r="F612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B612" t="inlineStr">
+      <c r="B613" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:11.073</t>
         </is>
       </c>
-      <c r="E612" t="inlineStr">
+      <c r="E613" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
+      <c r="F613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B613" t="inlineStr">
+      <c r="B614" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26659,39 +26697,15 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>2024-01-19T11:50:16.484</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-19–12:08-922Ot4qGWzoGWA0</t>
-        </is>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
       <c r="C614" t="inlineStr"/>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2024-01-19T12:08:11.538</t>
+          <t>2024-01-19T11:50:16.484</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
       <c r="F614" t="inlineStr"/>
@@ -26699,7 +26713,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-19–12:20-J29LWimS6GkYKtU</t>
+          <t>testVersion-V02-24-01-19–12:08-922Ot4qGWzoGWA0</t>
         </is>
       </c>
       <c r="B615" t="inlineStr">
@@ -26710,12 +26724,12 @@
       <c r="C615" t="inlineStr"/>
       <c r="D615" t="inlineStr">
         <is>
-          <t>2024-01-19T12:20:27.554</t>
+          <t>2024-01-19T12:08:11.538</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_5 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.5 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F615" t="inlineStr"/>
@@ -26723,10 +26737,34 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
+          <t>testVersion-V02-24-01-19–12:20-J29LWimS6GkYKtU</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>2024-01-19T12:20:27.554</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_5 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.5 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
           <t>testVersion-V02-24-01-19–13:28-CTyWmdPpssDqs99</t>
         </is>
       </c>
-      <c r="B616" t="inlineStr">
+      <c r="B617" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26734,39 +26772,15 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>2024-01-19T13:29:00.233</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Linux; Android 13; Pixel 7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/116.0.0.0 Mobile Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
-        </is>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
       <c r="C617" t="inlineStr"/>
       <c r="D617" t="inlineStr">
         <is>
-          <t>2024-01-21T16:00:46.670</t>
+          <t>2024-01-19T13:29:00.233</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (Linux; Android 13; Pixel 7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/116.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
       <c r="F617" t="inlineStr"/>
@@ -26785,7 +26799,7 @@
       <c r="C618" t="inlineStr"/>
       <c r="D618" t="inlineStr">
         <is>
-          <t>2024-01-21T16:00:48.380</t>
+          <t>2024-01-21T16:00:46.670</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
@@ -26798,7 +26812,7 @@
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
+          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
         </is>
       </c>
       <c r="B619" t="inlineStr">
@@ -26809,12 +26823,12 @@
       <c r="C619" t="inlineStr"/>
       <c r="D619" t="inlineStr">
         <is>
-          <t>2024-01-21T16:01:47.679</t>
+          <t>2024-01-21T16:00:48.380</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F619" t="inlineStr"/>
@@ -26833,7 +26847,7 @@
       <c r="C620" t="inlineStr"/>
       <c r="D620" t="inlineStr">
         <is>
-          <t>2024-01-21T16:03:22.697</t>
+          <t>2024-01-21T16:01:47.679</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
@@ -26846,7 +26860,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-21–16:04-kQMhlaV4kJdkTWd</t>
+          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
         </is>
       </c>
       <c r="B621" t="inlineStr">
@@ -26857,12 +26871,12 @@
       <c r="C621" t="inlineStr"/>
       <c r="D621" t="inlineStr">
         <is>
-          <t>2024-01-21T16:04:20.535</t>
+          <t>2024-01-21T16:03:22.697</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F621" t="inlineStr"/>
@@ -26870,7 +26884,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+          <t>testVersion-V02-24-01-21–16:04-kQMhlaV4kJdkTWd</t>
         </is>
       </c>
       <c r="B622" t="inlineStr">
@@ -26881,12 +26895,12 @@
       <c r="C622" t="inlineStr"/>
       <c r="D622" t="inlineStr">
         <is>
-          <t>2024-01-23T16:14:09.306</t>
+          <t>2024-01-21T16:04:20.535</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F622" t="inlineStr"/>
@@ -26905,15 +26919,204 @@
       <c r="C623" t="inlineStr"/>
       <c r="D623" t="inlineStr">
         <is>
+          <t>2024-01-23T16:14:09.306</t>
+        </is>
+      </c>
+      <c r="E623" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr">
+        <is>
           <t>2024-01-23T16:14:25.206</t>
         </is>
       </c>
-      <c r="E623" t="inlineStr">
+      <c r="E624" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F623" t="inlineStr"/>
+      <c r="F624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>2024-01-23T20:48:25.548</t>
+        </is>
+      </c>
+      <c r="E625" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-23–20:48-d2R10YCryURYw5M</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
+        </is>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>c@https://felpower.github.io/main.dart.js:5227:28
+@https://felpower.github.io/main.dart.js:87557:16
+@https://felpower.github.io/main.dart.js:6574:64
+$2@https://felpower.github.io/main.dart.js:49109:15
+$1@https://felpower.github.io/main.dart.js:49103:23
+aLK@https://felpower.github.io/main.dart.js:6799:21
+@https://felpower.github.io/main.dart.js:113132:13
+r_@https://felpower.github.io/main.dart.js:49922:14
+$0@https://felpower.github.io/main.dart.js:49471:13
+Bq@https://felpower.github.io/main.dart.js:6683:42
+w7@https://felpower.github.io/main.dart.js:49405:5
+$0@https://felpower.github.io/main.dart.js:49441:15
+aLI@https://felpower.github.io/main.dart.js:6796:11
+@https://felpower.github.io/main.dart.js:113130:69
+qY@https://felpower.github.io/main.dart.js:49920:14
+qZ@https://felpower.github.io/main.dart.js:49895:12
+$0@https://felpower.github.io/main.dart.js:49972:22
+bh0@https://felpower.github.io/main.dart.js:6715:7
+bhk@https://felpower.github.io/main.dart.js:6717:10
+$1@https://felpower.github.io/main.dart.js:49053:5</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>2024-01-23T20:48:51.055</t>
+        </is>
+      </c>
+      <c r="E626" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-23–20:48-d2R10YCryURYw5M</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
+        </is>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>c@https://felpower.github.io/main.dart.js:5227:28
+@https://felpower.github.io/main.dart.js:87557:16
+@https://felpower.github.io/main.dart.js:6574:64
+$2@https://felpower.github.io/main.dart.js:49109:15
+$1@https://felpower.github.io/main.dart.js:49103:23
+aLK@https://felpower.github.io/main.dart.js:6799:21
+@https://felpower.github.io/main.dart.js:113132:13
+r_@https://felpower.github.io/main.dart.js:49922:14
+$0@https://felpower.github.io/main.dart.js:49471:13
+Bq@https://felpower.github.io/main.dart.js:6683:42
+w7@https://felpower.github.io/main.dart.js:49405:5
+$0@https://felpower.github.io/main.dart.js:49441:15
+aLI@https://felpower.github.io/main.dart.js:6796:11
+@https://felpower.github.io/main.dart.js:113130:69
+qY@https://felpower.github.io/main.dart.js:49920:14
+qZ@https://felpower.github.io/main.dart.js:49895:12
+$0@https://felpower.github.io/main.dart.js:49972:22
+bh0@https://felpower.github.io/main.dart.js:6715:7
+bhk@https://felpower.github.io/main.dart.js:6717:10
+$1@https://felpower.github.io/main.dart.js:49053:5</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>2024-01-23T20:55:11.878</t>
+        </is>
+      </c>
+      <c r="E627" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-23–20:48-d2R10YCryURYw5M</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
+        </is>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>c@https://felpower.github.io/main.dart.js:5227:28
+@https://felpower.github.io/main.dart.js:87557:16
+@https://felpower.github.io/main.dart.js:6574:64
+$2@https://felpower.github.io/main.dart.js:49109:15
+$1@https://felpower.github.io/main.dart.js:49103:23
+aLK@https://felpower.github.io/main.dart.js:6799:21
+@https://felpower.github.io/main.dart.js:113132:13
+r_@https://felpower.github.io/main.dart.js:49922:14
+$0@https://felpower.github.io/main.dart.js:49471:13
+Bq@https://felpower.github.io/main.dart.js:6683:42
+w7@https://felpower.github.io/main.dart.js:49405:5
+$0@https://felpower.github.io/main.dart.js:49441:15
+aLI@https://felpower.github.io/main.dart.js:6796:11
+@https://felpower.github.io/main.dart.js:113130:69
+qY@https://felpower.github.io/main.dart.js:49920:14
+qZ@https://felpower.github.io/main.dart.js:49895:12
+$0@https://felpower.github.io/main.dart.js:49972:22
+bh0@https://felpower.github.io/main.dart.js:6715:7
+bhk@https://felpower.github.io/main.dart.js:6717:10
+$1@https://felpower.github.io/main.dart.js:49053:5</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>2024-01-23T20:56:31.469</t>
+        </is>
+      </c>
+      <c r="E628" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F628" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/generators/errors.xlsx
+++ b/generators/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F649"/>
+  <dimension ref="A1:F733"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27926,6 +27926,2244 @@
       </c>
       <c r="F649" t="inlineStr"/>
     </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:10-lQhylEVtncdtzCJ</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>closeFABError</t>
+        </is>
+      </c>
+      <c r="C650" t="inlineStr">
+        <is>
+          <t>Close FAB pressed</t>
+        </is>
+      </c>
+      <c r="D650" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:12:16.247</t>
+        </is>
+      </c>
+      <c r="E650" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.133</t>
+        </is>
+      </c>
+      <c r="E651" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C652" t="inlineStr"/>
+      <c r="D652" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.176</t>
+        </is>
+      </c>
+      <c r="E652" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.223</t>
+        </is>
+      </c>
+      <c r="E653" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.274</t>
+        </is>
+      </c>
+      <c r="E654" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.322</t>
+        </is>
+      </c>
+      <c r="E655" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.371</t>
+        </is>
+      </c>
+      <c r="E656" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.413</t>
+        </is>
+      </c>
+      <c r="E657" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.450</t>
+        </is>
+      </c>
+      <c r="E658" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.488</t>
+        </is>
+      </c>
+      <c r="E659" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.527</t>
+        </is>
+      </c>
+      <c r="E660" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.569</t>
+        </is>
+      </c>
+      <c r="E661" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.601</t>
+        </is>
+      </c>
+      <c r="E662" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.642</t>
+        </is>
+      </c>
+      <c r="E663" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.675</t>
+        </is>
+      </c>
+      <c r="E664" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.717</t>
+        </is>
+      </c>
+      <c r="E665" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.765</t>
+        </is>
+      </c>
+      <c r="E666" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.813</t>
+        </is>
+      </c>
+      <c r="E667" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.854</t>
+        </is>
+      </c>
+      <c r="E668" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.886</t>
+        </is>
+      </c>
+      <c r="E669" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.916</t>
+        </is>
+      </c>
+      <c r="E670" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.944</t>
+        </is>
+      </c>
+      <c r="E671" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.969</t>
+        </is>
+      </c>
+      <c r="E672" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:21.997</t>
+        </is>
+      </c>
+      <c r="E673" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:22.022</t>
+        </is>
+      </c>
+      <c r="E674" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:22.047</t>
+        </is>
+      </c>
+      <c r="E675" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:18:22.076</t>
+        </is>
+      </c>
+      <c r="E676" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C677" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D677" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:19:40.335</t>
+        </is>
+      </c>
+      <c r="E677" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>closeFABError</t>
+        </is>
+      </c>
+      <c r="C678" t="inlineStr">
+        <is>
+          <t>Close FAB pressed</t>
+        </is>
+      </c>
+      <c r="D678" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:19:44.487</t>
+        </is>
+      </c>
+      <c r="E678" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C679" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D679" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:21:23.349</t>
+        </is>
+      </c>
+      <c r="E679" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>closeFABError</t>
+        </is>
+      </c>
+      <c r="C680" t="inlineStr">
+        <is>
+          <t>Close FAB pressed</t>
+        </is>
+      </c>
+      <c r="D680" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:21:28.346</t>
+        </is>
+      </c>
+      <c r="E680" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C681" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D681" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:21:48.031</t>
+        </is>
+      </c>
+      <c r="E681" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>closeFABError</t>
+        </is>
+      </c>
+      <c r="C682" t="inlineStr">
+        <is>
+          <t>Close FAB pressed</t>
+        </is>
+      </c>
+      <c r="D682" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:21:52.533</t>
+        </is>
+      </c>
+      <c r="E682" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C683" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D683" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:06.350</t>
+        </is>
+      </c>
+      <c r="E683" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C684" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D684" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:06.352</t>
+        </is>
+      </c>
+      <c r="E684" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>closeFABError</t>
+        </is>
+      </c>
+      <c r="C685" t="inlineStr">
+        <is>
+          <t>Close FAB pressed</t>
+        </is>
+      </c>
+      <c r="D685" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:11.169</t>
+        </is>
+      </c>
+      <c r="E685" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C686" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D686" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:27.579</t>
+        </is>
+      </c>
+      <c r="E686" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C687" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D687" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:27.581</t>
+        </is>
+      </c>
+      <c r="E687" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C688" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D688" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:33.090</t>
+        </is>
+      </c>
+      <c r="E688" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C689" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D689" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:34.552</t>
+        </is>
+      </c>
+      <c r="E689" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C690" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D690" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:36.571</t>
+        </is>
+      </c>
+      <c r="E690" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C691" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D691" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:39.109</t>
+        </is>
+      </c>
+      <c r="E691" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>changeMusicError</t>
+        </is>
+      </c>
+      <c r="C692" t="inlineStr">
+        <is>
+          <t>Unity not ready</t>
+        </is>
+      </c>
+      <c r="D692" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:25:40.756</t>
+        </is>
+      </c>
+      <c r="E692" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:30-XKus7ZSpHDRFPNl</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C693" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D693" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:30:30.538</t>
+        </is>
+      </c>
+      <c r="E693" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C694" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D694" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:32:38.623</t>
+        </is>
+      </c>
+      <c r="E694" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C695" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D695" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:32:41.556</t>
+        </is>
+      </c>
+      <c r="E695" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C696" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D696" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:32:43.273</t>
+        </is>
+      </c>
+      <c r="E696" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr"/>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:27.940</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr"/>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:27.972</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:27.988</t>
+        </is>
+      </c>
+      <c r="E699" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.006</t>
+        </is>
+      </c>
+      <c r="E700" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.025</t>
+        </is>
+      </c>
+      <c r="E701" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.041</t>
+        </is>
+      </c>
+      <c r="E702" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.060</t>
+        </is>
+      </c>
+      <c r="E703" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.076</t>
+        </is>
+      </c>
+      <c r="E704" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.094</t>
+        </is>
+      </c>
+      <c r="E705" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.111</t>
+        </is>
+      </c>
+      <c r="E706" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.127</t>
+        </is>
+      </c>
+      <c r="E707" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.147</t>
+        </is>
+      </c>
+      <c r="E708" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.162</t>
+        </is>
+      </c>
+      <c r="E709" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.179</t>
+        </is>
+      </c>
+      <c r="E710" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.196</t>
+        </is>
+      </c>
+      <c r="E711" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.210</t>
+        </is>
+      </c>
+      <c r="E712" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.229</t>
+        </is>
+      </c>
+      <c r="E713" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.247</t>
+        </is>
+      </c>
+      <c r="E714" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.263</t>
+        </is>
+      </c>
+      <c r="E715" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.281</t>
+        </is>
+      </c>
+      <c r="E716" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.300</t>
+        </is>
+      </c>
+      <c r="E717" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.318</t>
+        </is>
+      </c>
+      <c r="E718" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.337</t>
+        </is>
+      </c>
+      <c r="E719" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.355</t>
+        </is>
+      </c>
+      <c r="E720" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.371</t>
+        </is>
+      </c>
+      <c r="E721" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.387</t>
+        </is>
+      </c>
+      <c r="E722" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.404</t>
+        </is>
+      </c>
+      <c r="E723" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.418</t>
+        </is>
+      </c>
+      <c r="E724" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.433</t>
+        </is>
+      </c>
+      <c r="E725" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.447</t>
+        </is>
+      </c>
+      <c r="E726" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:28.461</t>
+        </is>
+      </c>
+      <c r="E727" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C728" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D728" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:40.347</t>
+        </is>
+      </c>
+      <c r="E728" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C729" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D729" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:48.019</t>
+        </is>
+      </c>
+      <c r="E729" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C730" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D730" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:33:50.594</t>
+        </is>
+      </c>
+      <c r="E730" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C731" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D731" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:40:24.204</t>
+        </is>
+      </c>
+      <c r="E731" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C732" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D732" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:40:27.518</t>
+        </is>
+      </c>
+      <c r="E732" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:40:28.419</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/generators/errors.xlsx
+++ b/generators/errors.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F733"/>
+  <dimension ref="A1:F814"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25101,301 +25101,357 @@
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
+          <t>testVersion-V02-24-01-18–14:53-GIyhuiNMa5KNsMp</t>
+        </is>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:54:02.732</t>
+        </is>
+      </c>
+      <c r="E552" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F552" t="inlineStr"/>
+    </row>
+    <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-18–14:53-GIyhuiNMa5KNsMp</t>
+        </is>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:19:19.806</t>
+        </is>
+      </c>
+      <c r="E553" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 10; K) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F553" t="inlineStr"/>
+    </row>
+    <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B552" t="inlineStr">
+      <c r="B554" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C552" t="inlineStr"/>
-      <c r="D552" t="inlineStr">
+      <c r="C554" t="inlineStr"/>
+      <c r="D554" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.806</t>
         </is>
       </c>
-      <c r="E552" t="inlineStr">
+      <c r="E554" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F552" t="inlineStr"/>
-    </row>
-    <row r="553">
-      <c r="A553" t="inlineStr">
+      <c r="F554" t="inlineStr"/>
+    </row>
+    <row r="555">
+      <c r="A555" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B553" t="inlineStr">
+      <c r="B555" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C553" t="inlineStr"/>
-      <c r="D553" t="inlineStr">
+      <c r="C555" t="inlineStr"/>
+      <c r="D555" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.833</t>
         </is>
       </c>
-      <c r="E553" t="inlineStr">
+      <c r="E555" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F553" t="inlineStr"/>
-    </row>
-    <row r="554">
-      <c r="A554" t="inlineStr">
+      <c r="F555" t="inlineStr"/>
+    </row>
+    <row r="556">
+      <c r="A556" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B554" t="inlineStr">
+      <c r="B556" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C554" t="inlineStr"/>
-      <c r="D554" t="inlineStr">
+      <c r="C556" t="inlineStr"/>
+      <c r="D556" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.855</t>
         </is>
       </c>
-      <c r="E554" t="inlineStr">
+      <c r="E556" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F554" t="inlineStr"/>
-    </row>
-    <row r="555">
-      <c r="A555" t="inlineStr">
+      <c r="F556" t="inlineStr"/>
+    </row>
+    <row r="557">
+      <c r="A557" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B555" t="inlineStr">
+      <c r="B557" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C555" t="inlineStr"/>
-      <c r="D555" t="inlineStr">
+      <c r="C557" t="inlineStr"/>
+      <c r="D557" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.874</t>
         </is>
       </c>
-      <c r="E555" t="inlineStr">
+      <c r="E557" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F555" t="inlineStr"/>
-    </row>
-    <row r="556">
-      <c r="A556" t="inlineStr">
+      <c r="F557" t="inlineStr"/>
+    </row>
+    <row r="558">
+      <c r="A558" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B556" t="inlineStr">
+      <c r="B558" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C556" t="inlineStr"/>
-      <c r="D556" t="inlineStr">
+      <c r="C558" t="inlineStr"/>
+      <c r="D558" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.894</t>
         </is>
       </c>
-      <c r="E556" t="inlineStr">
+      <c r="E558" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F556" t="inlineStr"/>
-    </row>
-    <row r="557">
-      <c r="A557" t="inlineStr">
+      <c r="F558" t="inlineStr"/>
+    </row>
+    <row r="559">
+      <c r="A559" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B557" t="inlineStr">
+      <c r="B559" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C557" t="inlineStr"/>
-      <c r="D557" t="inlineStr">
+      <c r="C559" t="inlineStr"/>
+      <c r="D559" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.910</t>
         </is>
       </c>
-      <c r="E557" t="inlineStr">
+      <c r="E559" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F557" t="inlineStr"/>
-    </row>
-    <row r="558">
-      <c r="A558" t="inlineStr">
+      <c r="F559" t="inlineStr"/>
+    </row>
+    <row r="560">
+      <c r="A560" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B558" t="inlineStr">
+      <c r="B560" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C558" t="inlineStr"/>
-      <c r="D558" t="inlineStr">
+      <c r="C560" t="inlineStr"/>
+      <c r="D560" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.928</t>
         </is>
       </c>
-      <c r="E558" t="inlineStr">
+      <c r="E560" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F558" t="inlineStr"/>
-    </row>
-    <row r="559">
-      <c r="A559" t="inlineStr">
+      <c r="F560" t="inlineStr"/>
+    </row>
+    <row r="561">
+      <c r="A561" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B559" t="inlineStr">
+      <c r="B561" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C559" t="inlineStr"/>
-      <c r="D559" t="inlineStr">
+      <c r="C561" t="inlineStr"/>
+      <c r="D561" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:09.945</t>
         </is>
       </c>
-      <c r="E559" t="inlineStr">
+      <c r="E561" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F559" t="inlineStr"/>
-    </row>
-    <row r="560">
-      <c r="A560" t="inlineStr">
+      <c r="F561" t="inlineStr"/>
+    </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B560" t="inlineStr">
+      <c r="B562" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C560" t="inlineStr"/>
-      <c r="D560" t="inlineStr">
+      <c r="C562" t="inlineStr"/>
+      <c r="D562" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:14.026</t>
         </is>
       </c>
-      <c r="E560" t="inlineStr">
+      <c r="E562" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F560" t="inlineStr"/>
-    </row>
-    <row r="561">
-      <c r="A561" t="inlineStr">
+      <c r="F562" t="inlineStr"/>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B561" t="inlineStr">
+      <c r="B563" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C561" t="inlineStr"/>
-      <c r="D561" t="inlineStr">
+      <c r="C563" t="inlineStr"/>
+      <c r="D563" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:14.044</t>
         </is>
       </c>
-      <c r="E561" t="inlineStr">
+      <c r="E563" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F561" t="inlineStr"/>
-    </row>
-    <row r="562">
-      <c r="A562" t="inlineStr">
+      <c r="F563" t="inlineStr"/>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:08-ogbwcqsWJhpHV8g</t>
         </is>
       </c>
-      <c r="B562" t="inlineStr">
+      <c r="B564" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C562" t="inlineStr"/>
-      <c r="D562" t="inlineStr">
+      <c r="C564" t="inlineStr"/>
+      <c r="D564" t="inlineStr">
         <is>
           <t>2024-01-18T19:09:27.821</t>
         </is>
       </c>
-      <c r="E562" t="inlineStr">
+      <c r="E564" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F562" t="inlineStr"/>
-    </row>
-    <row r="563">
-      <c r="A563" t="inlineStr">
+      <c r="F564" t="inlineStr"/>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-18–19:18-q7IQ4iJK6blvaoG</t>
         </is>
       </c>
-      <c r="B563" t="inlineStr">
+      <c r="B565" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C563" t="inlineStr">
+      <c r="C565" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)
     at Object.c (https://felpower.github.io/main.dart.js:5227:19)
@@ -25410,54 +25466,54 @@
     at Object.Bq (https://felpower.github.io/main.dart.js:6683:40)</t>
         </is>
       </c>
-      <c r="D563" t="inlineStr">
+      <c r="D565" t="inlineStr">
         <is>
           <t>2024-01-24T14:21:53.864</t>
         </is>
       </c>
-      <c r="E563" t="inlineStr">
+      <c r="E565" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F563" t="inlineStr"/>
-    </row>
-    <row r="564">
-      <c r="A564" t="inlineStr">
+      <c r="F565" t="inlineStr"/>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
         </is>
       </c>
-      <c r="B564" t="inlineStr">
+      <c r="B566" t="inlineStr">
         <is>
           <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
         </is>
       </c>
-      <c r="C564" t="inlineStr"/>
-      <c r="D564" t="inlineStr">
+      <c r="C566" t="inlineStr"/>
+      <c r="D566" t="inlineStr">
         <is>
           <t>2024-01-19T10:44:29.244</t>
         </is>
       </c>
-      <c r="E564" t="inlineStr">
+      <c r="E566" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F564" t="inlineStr"/>
-    </row>
-    <row r="565">
-      <c r="A565" t="inlineStr">
+      <c r="F566" t="inlineStr"/>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
         </is>
       </c>
-      <c r="B565" t="inlineStr">
+      <c r="B567" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C565" t="inlineStr">
+      <c r="C567" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 @https://felpower.github.io/main.dart.js:87556:16
@@ -25481,57 +25537,9 @@
 $1@https://felpower.github.io/main.dart.js:49048:5</t>
         </is>
       </c>
-      <c r="D565" t="inlineStr">
+      <c r="D567" t="inlineStr">
         <is>
           <t>2024-01-24T15:04:09.430</t>
-        </is>
-      </c>
-      <c r="E565" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
-        </is>
-      </c>
-      <c r="F565" t="inlineStr"/>
-    </row>
-    <row r="566">
-      <c r="A566" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
-        </is>
-      </c>
-      <c r="B566" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
-      <c r="C566" t="inlineStr"/>
-      <c r="D566" t="inlineStr">
-        <is>
-          <t>2024-01-24T15:04:09.572</t>
-        </is>
-      </c>
-      <c r="E566" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
-        </is>
-      </c>
-      <c r="F566" t="inlineStr"/>
-    </row>
-    <row r="567">
-      <c r="A567" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
-        </is>
-      </c>
-      <c r="B567" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
-      <c r="C567" t="inlineStr"/>
-      <c r="D567" t="inlineStr">
-        <is>
-          <t>2024-01-24T15:56:32.393</t>
         </is>
       </c>
       <c r="E567" t="inlineStr">
@@ -25555,7 +25563,7 @@
       <c r="C568" t="inlineStr"/>
       <c r="D568" t="inlineStr">
         <is>
-          <t>2024-01-24T16:00:43.474</t>
+          <t>2024-01-24T15:04:09.572</t>
         </is>
       </c>
       <c r="E568" t="inlineStr">
@@ -25579,7 +25587,7 @@
       <c r="C569" t="inlineStr"/>
       <c r="D569" t="inlineStr">
         <is>
-          <t>2024-01-24T16:02:41.245</t>
+          <t>2024-01-24T15:56:32.393</t>
         </is>
       </c>
       <c r="E569" t="inlineStr">
@@ -25592,452 +25600,500 @@
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
+          <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C570" t="inlineStr"/>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>2024-01-24T16:00:43.474</t>
+        </is>
+      </c>
+      <c r="E570" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F570" t="inlineStr"/>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-19–10:44-GfwuVW9KTI6S58S</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C571" t="inlineStr"/>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>2024-01-24T16:02:41.245</t>
+        </is>
+      </c>
+      <c r="E571" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F571" t="inlineStr"/>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B570" t="inlineStr">
+      <c r="B572" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C570" t="inlineStr"/>
-      <c r="D570" t="inlineStr">
+      <c r="C572" t="inlineStr"/>
+      <c r="D572" t="inlineStr">
         <is>
           <t>2024-01-19T11:22:48.340</t>
         </is>
       </c>
-      <c r="E570" t="inlineStr">
+      <c r="E572" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F570" t="inlineStr"/>
-    </row>
-    <row r="571">
-      <c r="A571" t="inlineStr">
+      <c r="F572" t="inlineStr"/>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B571" t="inlineStr">
+      <c r="B573" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C571" t="inlineStr"/>
-      <c r="D571" t="inlineStr">
+      <c r="C573" t="inlineStr"/>
+      <c r="D573" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.664</t>
         </is>
       </c>
-      <c r="E571" t="inlineStr">
+      <c r="E573" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F571" t="inlineStr"/>
-    </row>
-    <row r="572">
-      <c r="A572" t="inlineStr">
+      <c r="F573" t="inlineStr"/>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B572" t="inlineStr">
+      <c r="B574" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C572" t="inlineStr"/>
-      <c r="D572" t="inlineStr">
+      <c r="C574" t="inlineStr"/>
+      <c r="D574" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.699</t>
         </is>
       </c>
-      <c r="E572" t="inlineStr">
+      <c r="E574" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F572" t="inlineStr"/>
-    </row>
-    <row r="573">
-      <c r="A573" t="inlineStr">
+      <c r="F574" t="inlineStr"/>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B573" t="inlineStr">
+      <c r="B575" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C573" t="inlineStr"/>
-      <c r="D573" t="inlineStr">
+      <c r="C575" t="inlineStr"/>
+      <c r="D575" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.725</t>
         </is>
       </c>
-      <c r="E573" t="inlineStr">
+      <c r="E575" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F573" t="inlineStr"/>
-    </row>
-    <row r="574">
-      <c r="A574" t="inlineStr">
+      <c r="F575" t="inlineStr"/>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B574" t="inlineStr">
+      <c r="B576" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C574" t="inlineStr"/>
-      <c r="D574" t="inlineStr">
+      <c r="C576" t="inlineStr"/>
+      <c r="D576" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.751</t>
         </is>
       </c>
-      <c r="E574" t="inlineStr">
+      <c r="E576" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F574" t="inlineStr"/>
-    </row>
-    <row r="575">
-      <c r="A575" t="inlineStr">
+      <c r="F576" t="inlineStr"/>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B575" t="inlineStr">
+      <c r="B577" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C575" t="inlineStr"/>
-      <c r="D575" t="inlineStr">
+      <c r="C577" t="inlineStr"/>
+      <c r="D577" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.785</t>
         </is>
       </c>
-      <c r="E575" t="inlineStr">
+      <c r="E577" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F575" t="inlineStr"/>
-    </row>
-    <row r="576">
-      <c r="A576" t="inlineStr">
+      <c r="F577" t="inlineStr"/>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B576" t="inlineStr">
+      <c r="B578" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C576" t="inlineStr"/>
-      <c r="D576" t="inlineStr">
+      <c r="C578" t="inlineStr"/>
+      <c r="D578" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.826</t>
         </is>
       </c>
-      <c r="E576" t="inlineStr">
+      <c r="E578" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F576" t="inlineStr"/>
-    </row>
-    <row r="577">
-      <c r="A577" t="inlineStr">
+      <c r="F578" t="inlineStr"/>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B577" t="inlineStr">
+      <c r="B579" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C577" t="inlineStr"/>
-      <c r="D577" t="inlineStr">
+      <c r="C579" t="inlineStr"/>
+      <c r="D579" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.873</t>
         </is>
       </c>
-      <c r="E577" t="inlineStr">
+      <c r="E579" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F577" t="inlineStr"/>
-    </row>
-    <row r="578">
-      <c r="A578" t="inlineStr">
+      <c r="F579" t="inlineStr"/>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B578" t="inlineStr">
+      <c r="B580" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C578" t="inlineStr"/>
-      <c r="D578" t="inlineStr">
+      <c r="C580" t="inlineStr"/>
+      <c r="D580" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.909</t>
         </is>
       </c>
-      <c r="E578" t="inlineStr">
+      <c r="E580" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F578" t="inlineStr"/>
-    </row>
-    <row r="579">
-      <c r="A579" t="inlineStr">
+      <c r="F580" t="inlineStr"/>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B579" t="inlineStr">
+      <c r="B581" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C579" t="inlineStr"/>
-      <c r="D579" t="inlineStr">
+      <c r="C581" t="inlineStr"/>
+      <c r="D581" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.940</t>
         </is>
       </c>
-      <c r="E579" t="inlineStr">
+      <c r="E581" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F579" t="inlineStr"/>
-    </row>
-    <row r="580">
-      <c r="A580" t="inlineStr">
+      <c r="F581" t="inlineStr"/>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B580" t="inlineStr">
+      <c r="B582" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C580" t="inlineStr"/>
-      <c r="D580" t="inlineStr">
+      <c r="C582" t="inlineStr"/>
+      <c r="D582" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.969</t>
         </is>
       </c>
-      <c r="E580" t="inlineStr">
+      <c r="E582" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F580" t="inlineStr"/>
-    </row>
-    <row r="581">
-      <c r="A581" t="inlineStr">
+      <c r="F582" t="inlineStr"/>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B581" t="inlineStr">
+      <c r="B583" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C581" t="inlineStr"/>
-      <c r="D581" t="inlineStr">
+      <c r="C583" t="inlineStr"/>
+      <c r="D583" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:14.995</t>
         </is>
       </c>
-      <c r="E581" t="inlineStr">
+      <c r="E583" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F581" t="inlineStr"/>
-    </row>
-    <row r="582">
-      <c r="A582" t="inlineStr">
+      <c r="F583" t="inlineStr"/>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B582" t="inlineStr">
+      <c r="B584" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C582" t="inlineStr"/>
-      <c r="D582" t="inlineStr">
+      <c r="C584" t="inlineStr"/>
+      <c r="D584" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.023</t>
         </is>
       </c>
-      <c r="E582" t="inlineStr">
+      <c r="E584" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F582" t="inlineStr"/>
-    </row>
-    <row r="583">
-      <c r="A583" t="inlineStr">
+      <c r="F584" t="inlineStr"/>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B583" t="inlineStr">
+      <c r="B585" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C583" t="inlineStr"/>
-      <c r="D583" t="inlineStr">
+      <c r="C585" t="inlineStr"/>
+      <c r="D585" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.052</t>
         </is>
       </c>
-      <c r="E583" t="inlineStr">
+      <c r="E585" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F583" t="inlineStr"/>
-    </row>
-    <row r="584">
-      <c r="A584" t="inlineStr">
+      <c r="F585" t="inlineStr"/>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B584" t="inlineStr">
+      <c r="B586" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C584" t="inlineStr"/>
-      <c r="D584" t="inlineStr">
+      <c r="C586" t="inlineStr"/>
+      <c r="D586" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.081</t>
         </is>
       </c>
-      <c r="E584" t="inlineStr">
+      <c r="E586" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F584" t="inlineStr"/>
-    </row>
-    <row r="585">
-      <c r="A585" t="inlineStr">
+      <c r="F586" t="inlineStr"/>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B585" t="inlineStr">
+      <c r="B587" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C585" t="inlineStr"/>
-      <c r="D585" t="inlineStr">
+      <c r="C587" t="inlineStr"/>
+      <c r="D587" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.110</t>
         </is>
       </c>
-      <c r="E585" t="inlineStr">
+      <c r="E587" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F585" t="inlineStr"/>
-    </row>
-    <row r="586">
-      <c r="A586" t="inlineStr">
+      <c r="F587" t="inlineStr"/>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:21-GlE3661O1c6lGBw</t>
         </is>
       </c>
-      <c r="B586" t="inlineStr">
+      <c r="B588" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C586" t="inlineStr"/>
-      <c r="D586" t="inlineStr">
+      <c r="C588" t="inlineStr"/>
+      <c r="D588" t="inlineStr">
         <is>
           <t>2024-01-19T11:23:15.137</t>
         </is>
       </c>
-      <c r="E586" t="inlineStr">
+      <c r="E588" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F586" t="inlineStr"/>
-    </row>
-    <row r="587">
-      <c r="A587" t="inlineStr">
+      <c r="F588" t="inlineStr"/>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:27-vTRj0AXBw173wcs</t>
         </is>
       </c>
-      <c r="B587" t="inlineStr">
+      <c r="B589" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26045,26 +26101,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C587" t="inlineStr"/>
-      <c r="D587" t="inlineStr">
+      <c r="C589" t="inlineStr"/>
+      <c r="D589" t="inlineStr">
         <is>
           <t>2024-01-19T11:35:19.335</t>
         </is>
       </c>
-      <c r="E587" t="inlineStr">
+      <c r="E589" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F587" t="inlineStr"/>
-    </row>
-    <row r="588">
-      <c r="A588" t="inlineStr">
+      <c r="F589" t="inlineStr"/>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B588" t="inlineStr">
+      <c r="B590" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26072,26 +26128,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C588" t="inlineStr"/>
-      <c r="D588" t="inlineStr">
+      <c r="C590" t="inlineStr"/>
+      <c r="D590" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:18.401</t>
         </is>
       </c>
-      <c r="E588" t="inlineStr">
+      <c r="E590" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F588" t="inlineStr"/>
-    </row>
-    <row r="589">
-      <c r="A589" t="inlineStr">
+      <c r="F590" t="inlineStr"/>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B589" t="inlineStr">
+      <c r="B591" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26099,26 +26155,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C589" t="inlineStr"/>
-      <c r="D589" t="inlineStr">
+      <c r="C591" t="inlineStr"/>
+      <c r="D591" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:30.441</t>
         </is>
       </c>
-      <c r="E589" t="inlineStr">
+      <c r="E591" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F589" t="inlineStr"/>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
+      <c r="F591" t="inlineStr"/>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B590" t="inlineStr">
+      <c r="B592" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26126,26 +26182,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C590" t="inlineStr"/>
-      <c r="D590" t="inlineStr">
+      <c r="C592" t="inlineStr"/>
+      <c r="D592" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:32.813</t>
         </is>
       </c>
-      <c r="E590" t="inlineStr">
+      <c r="E592" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F590" t="inlineStr"/>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
+      <c r="F592" t="inlineStr"/>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B591" t="inlineStr">
+      <c r="B593" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26153,26 +26209,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C591" t="inlineStr"/>
-      <c r="D591" t="inlineStr">
+      <c r="C593" t="inlineStr"/>
+      <c r="D593" t="inlineStr">
         <is>
           <t>2024-01-19T11:45:40.633</t>
         </is>
       </c>
-      <c r="E591" t="inlineStr">
+      <c r="E593" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F591" t="inlineStr"/>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
+      <c r="F593" t="inlineStr"/>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B592" t="inlineStr">
+      <c r="B594" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26180,26 +26236,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C592" t="inlineStr"/>
-      <c r="D592" t="inlineStr">
+      <c r="C594" t="inlineStr"/>
+      <c r="D594" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:08.006</t>
         </is>
       </c>
-      <c r="E592" t="inlineStr">
+      <c r="E594" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F592" t="inlineStr"/>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
+      <c r="F594" t="inlineStr"/>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B593" t="inlineStr">
+      <c r="B595" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26207,26 +26263,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C593" t="inlineStr"/>
-      <c r="D593" t="inlineStr">
+      <c r="C595" t="inlineStr"/>
+      <c r="D595" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:16.219</t>
         </is>
       </c>
-      <c r="E593" t="inlineStr">
+      <c r="E595" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F593" t="inlineStr"/>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
+      <c r="F595" t="inlineStr"/>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B594" t="inlineStr">
+      <c r="B596" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26234,26 +26290,26 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C594" t="inlineStr"/>
-      <c r="D594" t="inlineStr">
+      <c r="C596" t="inlineStr"/>
+      <c r="D596" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:20.309</t>
         </is>
       </c>
-      <c r="E594" t="inlineStr">
+      <c r="E596" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F594" t="inlineStr"/>
-    </row>
-    <row r="595">
-      <c r="A595" t="inlineStr">
+      <c r="F596" t="inlineStr"/>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B595" t="inlineStr">
+      <c r="B597" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -26261,754 +26317,754 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C595" t="inlineStr"/>
-      <c r="D595" t="inlineStr">
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr">
         <is>
           <t>2024-01-19T11:46:28.653</t>
         </is>
       </c>
-      <c r="E595" t="inlineStr">
+      <c r="E597" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F595" t="inlineStr"/>
-    </row>
-    <row r="596">
-      <c r="A596" t="inlineStr">
+      <c r="F597" t="inlineStr"/>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B596" t="inlineStr">
+      <c r="B598" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C596" t="inlineStr"/>
-      <c r="D596" t="inlineStr">
+      <c r="C598" t="inlineStr"/>
+      <c r="D598" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.454</t>
         </is>
       </c>
-      <c r="E596" t="inlineStr">
+      <c r="E598" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F596" t="inlineStr"/>
-    </row>
-    <row r="597">
-      <c r="A597" t="inlineStr">
+      <c r="F598" t="inlineStr"/>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B597" t="inlineStr">
+      <c r="B599" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C597" t="inlineStr"/>
-      <c r="D597" t="inlineStr">
+      <c r="C599" t="inlineStr"/>
+      <c r="D599" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.488</t>
         </is>
       </c>
-      <c r="E597" t="inlineStr">
+      <c r="E599" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F597" t="inlineStr"/>
-    </row>
-    <row r="598">
-      <c r="A598" t="inlineStr">
+      <c r="F599" t="inlineStr"/>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B598" t="inlineStr">
+      <c r="B600" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C598" t="inlineStr"/>
-      <c r="D598" t="inlineStr">
+      <c r="C600" t="inlineStr"/>
+      <c r="D600" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.515</t>
         </is>
       </c>
-      <c r="E598" t="inlineStr">
+      <c r="E600" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F598" t="inlineStr"/>
-    </row>
-    <row r="599">
-      <c r="A599" t="inlineStr">
+      <c r="F600" t="inlineStr"/>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B599" t="inlineStr">
+      <c r="B601" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C599" t="inlineStr"/>
-      <c r="D599" t="inlineStr">
+      <c r="C601" t="inlineStr"/>
+      <c r="D601" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.557</t>
         </is>
       </c>
-      <c r="E599" t="inlineStr">
+      <c r="E601" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F599" t="inlineStr"/>
-    </row>
-    <row r="600">
-      <c r="A600" t="inlineStr">
+      <c r="F601" t="inlineStr"/>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B600" t="inlineStr">
+      <c r="B602" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C600" t="inlineStr"/>
-      <c r="D600" t="inlineStr">
+      <c r="C602" t="inlineStr"/>
+      <c r="D602" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.581</t>
         </is>
       </c>
-      <c r="E600" t="inlineStr">
+      <c r="E602" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F600" t="inlineStr"/>
-    </row>
-    <row r="601">
-      <c r="A601" t="inlineStr">
+      <c r="F602" t="inlineStr"/>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B601" t="inlineStr">
+      <c r="B603" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C601" t="inlineStr"/>
-      <c r="D601" t="inlineStr">
+      <c r="C603" t="inlineStr"/>
+      <c r="D603" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.610</t>
         </is>
       </c>
-      <c r="E601" t="inlineStr">
+      <c r="E603" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F601" t="inlineStr"/>
-    </row>
-    <row r="602">
-      <c r="A602" t="inlineStr">
+      <c r="F603" t="inlineStr"/>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B602" t="inlineStr">
+      <c r="B604" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C602" t="inlineStr"/>
-      <c r="D602" t="inlineStr">
+      <c r="C604" t="inlineStr"/>
+      <c r="D604" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.634</t>
         </is>
       </c>
-      <c r="E602" t="inlineStr">
+      <c r="E604" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F602" t="inlineStr"/>
-    </row>
-    <row r="603">
-      <c r="A603" t="inlineStr">
+      <c r="F604" t="inlineStr"/>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B603" t="inlineStr">
+      <c r="B605" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C603" t="inlineStr"/>
-      <c r="D603" t="inlineStr">
+      <c r="C605" t="inlineStr"/>
+      <c r="D605" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.661</t>
         </is>
       </c>
-      <c r="E603" t="inlineStr">
+      <c r="E605" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F603" t="inlineStr"/>
-    </row>
-    <row r="604">
-      <c r="A604" t="inlineStr">
+      <c r="F605" t="inlineStr"/>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B604" t="inlineStr">
+      <c r="B606" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C604" t="inlineStr"/>
-      <c r="D604" t="inlineStr">
+      <c r="C606" t="inlineStr"/>
+      <c r="D606" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.688</t>
         </is>
       </c>
-      <c r="E604" t="inlineStr">
+      <c r="E606" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F604" t="inlineStr"/>
-    </row>
-    <row r="605">
-      <c r="A605" t="inlineStr">
+      <c r="F606" t="inlineStr"/>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B605" t="inlineStr">
+      <c r="B607" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C605" t="inlineStr"/>
-      <c r="D605" t="inlineStr">
+      <c r="C607" t="inlineStr"/>
+      <c r="D607" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.720</t>
         </is>
       </c>
-      <c r="E605" t="inlineStr">
+      <c r="E607" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F605" t="inlineStr"/>
-    </row>
-    <row r="606">
-      <c r="A606" t="inlineStr">
+      <c r="F607" t="inlineStr"/>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B606" t="inlineStr">
+      <c r="B608" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C606" t="inlineStr"/>
-      <c r="D606" t="inlineStr">
+      <c r="C608" t="inlineStr"/>
+      <c r="D608" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.742</t>
         </is>
       </c>
-      <c r="E606" t="inlineStr">
+      <c r="E608" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F606" t="inlineStr"/>
-    </row>
-    <row r="607">
-      <c r="A607" t="inlineStr">
+      <c r="F608" t="inlineStr"/>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B607" t="inlineStr">
+      <c r="B609" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C607" t="inlineStr"/>
-      <c r="D607" t="inlineStr">
+      <c r="C609" t="inlineStr"/>
+      <c r="D609" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.764</t>
         </is>
       </c>
-      <c r="E607" t="inlineStr">
+      <c r="E609" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F607" t="inlineStr"/>
-    </row>
-    <row r="608">
-      <c r="A608" t="inlineStr">
+      <c r="F609" t="inlineStr"/>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B608" t="inlineStr">
+      <c r="B610" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C608" t="inlineStr"/>
-      <c r="D608" t="inlineStr">
+      <c r="C610" t="inlineStr"/>
+      <c r="D610" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.784</t>
         </is>
       </c>
-      <c r="E608" t="inlineStr">
+      <c r="E610" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F608" t="inlineStr"/>
-    </row>
-    <row r="609">
-      <c r="A609" t="inlineStr">
+      <c r="F610" t="inlineStr"/>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B609" t="inlineStr">
+      <c r="B611" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C609" t="inlineStr"/>
-      <c r="D609" t="inlineStr">
+      <c r="C611" t="inlineStr"/>
+      <c r="D611" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.806</t>
         </is>
       </c>
-      <c r="E609" t="inlineStr">
+      <c r="E611" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F609" t="inlineStr"/>
-    </row>
-    <row r="610">
-      <c r="A610" t="inlineStr">
+      <c r="F611" t="inlineStr"/>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B610" t="inlineStr">
+      <c r="B612" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C610" t="inlineStr"/>
-      <c r="D610" t="inlineStr">
+      <c r="C612" t="inlineStr"/>
+      <c r="D612" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.830</t>
         </is>
       </c>
-      <c r="E610" t="inlineStr">
+      <c r="E612" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F610" t="inlineStr"/>
-    </row>
-    <row r="611">
-      <c r="A611" t="inlineStr">
+      <c r="F612" t="inlineStr"/>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B611" t="inlineStr">
+      <c r="B613" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C611" t="inlineStr"/>
-      <c r="D611" t="inlineStr">
+      <c r="C613" t="inlineStr"/>
+      <c r="D613" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.855</t>
         </is>
       </c>
-      <c r="E611" t="inlineStr">
+      <c r="E613" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" t="inlineStr">
+      <c r="F613" t="inlineStr"/>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B612" t="inlineStr">
+      <c r="B614" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C612" t="inlineStr"/>
-      <c r="D612" t="inlineStr">
+      <c r="C614" t="inlineStr"/>
+      <c r="D614" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.885</t>
         </is>
       </c>
-      <c r="E612" t="inlineStr">
+      <c r="E614" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" t="inlineStr">
+      <c r="F614" t="inlineStr"/>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B613" t="inlineStr">
+      <c r="B615" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C613" t="inlineStr"/>
-      <c r="D613" t="inlineStr">
+      <c r="C615" t="inlineStr"/>
+      <c r="D615" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.911</t>
         </is>
       </c>
-      <c r="E613" t="inlineStr">
+      <c r="E615" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" t="inlineStr">
+      <c r="F615" t="inlineStr"/>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B614" t="inlineStr">
+      <c r="B616" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C614" t="inlineStr"/>
-      <c r="D614" t="inlineStr">
+      <c r="C616" t="inlineStr"/>
+      <c r="D616" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.939</t>
         </is>
       </c>
-      <c r="E614" t="inlineStr">
+      <c r="E616" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" t="inlineStr">
+      <c r="F616" t="inlineStr"/>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B615" t="inlineStr">
+      <c r="B617" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C615" t="inlineStr"/>
-      <c r="D615" t="inlineStr">
+      <c r="C617" t="inlineStr"/>
+      <c r="D617" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.967</t>
         </is>
       </c>
-      <c r="E615" t="inlineStr">
+      <c r="E617" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" t="inlineStr">
+      <c r="F617" t="inlineStr"/>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B616" t="inlineStr">
+      <c r="B618" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C616" t="inlineStr"/>
-      <c r="D616" t="inlineStr">
+      <c r="C618" t="inlineStr"/>
+      <c r="D618" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:09.992</t>
         </is>
       </c>
-      <c r="E616" t="inlineStr">
+      <c r="E618" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" t="inlineStr">
+      <c r="F618" t="inlineStr"/>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B617" t="inlineStr">
+      <c r="B619" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C617" t="inlineStr"/>
-      <c r="D617" t="inlineStr">
+      <c r="C619" t="inlineStr"/>
+      <c r="D619" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.018</t>
         </is>
       </c>
-      <c r="E617" t="inlineStr">
+      <c r="E619" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" t="inlineStr">
+      <c r="F619" t="inlineStr"/>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B618" t="inlineStr">
+      <c r="B620" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C618" t="inlineStr"/>
-      <c r="D618" t="inlineStr">
+      <c r="C620" t="inlineStr"/>
+      <c r="D620" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.047</t>
         </is>
       </c>
-      <c r="E618" t="inlineStr">
+      <c r="E620" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" t="inlineStr">
+      <c r="F620" t="inlineStr"/>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B619" t="inlineStr">
+      <c r="B621" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C619" t="inlineStr"/>
-      <c r="D619" t="inlineStr">
+      <c r="C621" t="inlineStr"/>
+      <c r="D621" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.148</t>
         </is>
       </c>
-      <c r="E619" t="inlineStr">
+      <c r="E621" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" t="inlineStr">
+      <c r="F621" t="inlineStr"/>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B620" t="inlineStr">
+      <c r="B622" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C620" t="inlineStr"/>
-      <c r="D620" t="inlineStr">
+      <c r="C622" t="inlineStr"/>
+      <c r="D622" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.177</t>
         </is>
       </c>
-      <c r="E620" t="inlineStr">
+      <c r="E622" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" t="inlineStr">
+      <c r="F622" t="inlineStr"/>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B621" t="inlineStr">
+      <c r="B623" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C621" t="inlineStr"/>
-      <c r="D621" t="inlineStr">
+      <c r="C623" t="inlineStr"/>
+      <c r="D623" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:10.211</t>
         </is>
       </c>
-      <c r="E621" t="inlineStr">
+      <c r="E623" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" t="inlineStr">
+      <c r="F623" t="inlineStr"/>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B622" t="inlineStr">
+      <c r="B624" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C622" t="inlineStr"/>
-      <c r="D622" t="inlineStr">
+      <c r="C624" t="inlineStr"/>
+      <c r="D624" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:11.054</t>
         </is>
       </c>
-      <c r="E622" t="inlineStr">
+      <c r="E624" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" t="inlineStr">
+      <c r="F624" t="inlineStr"/>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B623" t="inlineStr">
+      <c r="B625" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C623" t="inlineStr"/>
-      <c r="D623" t="inlineStr">
+      <c r="C625" t="inlineStr"/>
+      <c r="D625" t="inlineStr">
         <is>
           <t>2024-01-19T11:49:11.073</t>
         </is>
       </c>
-      <c r="E623" t="inlineStr">
+      <c r="E625" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" t="inlineStr">
+      <c r="F625" t="inlineStr"/>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–11:44-2xC7qWt10kenUbi</t>
         </is>
       </c>
-      <c r="B624" t="inlineStr">
+      <c r="B626" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -27016,56 +27072,56 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C624" t="inlineStr"/>
-      <c r="D624" t="inlineStr">
+      <c r="C626" t="inlineStr"/>
+      <c r="D626" t="inlineStr">
         <is>
           <t>2024-01-19T11:50:16.484</t>
         </is>
       </c>
-      <c r="E624" t="inlineStr">
+      <c r="E626" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/120.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
-      <c r="F624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" t="inlineStr">
+      <c r="F626" t="inlineStr"/>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–12:08-922Ot4qGWzoGWA0</t>
         </is>
       </c>
-      <c r="B625" t="inlineStr">
+      <c r="B627" t="inlineStr">
         <is>
           <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
         </is>
       </c>
-      <c r="C625" t="inlineStr"/>
-      <c r="D625" t="inlineStr">
+      <c r="C627" t="inlineStr"/>
+      <c r="D627" t="inlineStr">
         <is>
           <t>2024-01-19T12:08:11.538</t>
         </is>
       </c>
-      <c r="E625" t="inlineStr">
+      <c r="E627" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" t="inlineStr">
+      <c r="F627" t="inlineStr"/>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–12:20-12E05hk6pSIBgMN</t>
         </is>
       </c>
-      <c r="B626" t="inlineStr">
+      <c r="B628" t="inlineStr">
         <is>
           <t>PlatformException(error, Exception: Did you forget to run "dart run flutter_native_splash:create"? 
  Could not run the JS command removeSplashFromWeb(), null, null)</t>
         </is>
       </c>
-      <c r="C626" t="inlineStr">
+      <c r="C628" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 Nc@https://felpower.github.io/main.dart.js:87469:15
@@ -27091,31 +27147,31 @@
 $1@[native code]</t>
         </is>
       </c>
-      <c r="D626" t="inlineStr">
+      <c r="D628" t="inlineStr">
         <is>
           <t>2024-01-24T15:49:33.014</t>
         </is>
       </c>
-      <c r="E626" t="inlineStr">
+      <c r="E628" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_5 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.5 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" t="inlineStr">
+      <c r="F628" t="inlineStr"/>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–12:20-12E05hk6pSIBgMN</t>
         </is>
       </c>
-      <c r="B627" t="inlineStr">
+      <c r="B629" t="inlineStr">
         <is>
           <t>PlatformException(error, Exception: Did you forget to run "dart run flutter_native_splash:create"? 
  Could not run the JS command removeSplashFromWeb(), null, null)</t>
         </is>
       </c>
-      <c r="C627" t="inlineStr">
+      <c r="C629" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 Nc@https://felpower.github.io/main.dart.js:87469:15
@@ -27141,49 +27197,49 @@
 $1@[native code]</t>
         </is>
       </c>
-      <c r="D627" t="inlineStr">
+      <c r="D629" t="inlineStr">
         <is>
           <t>2024-01-24T16:03:57.848</t>
         </is>
       </c>
-      <c r="E627" t="inlineStr">
+      <c r="E629" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_5 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.5 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" t="inlineStr">
+      <c r="F629" t="inlineStr"/>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–12:20-J29LWimS6GkYKtU</t>
         </is>
       </c>
-      <c r="B628" t="inlineStr">
+      <c r="B630" t="inlineStr">
         <is>
           <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
         </is>
       </c>
-      <c r="C628" t="inlineStr"/>
-      <c r="D628" t="inlineStr">
+      <c r="C630" t="inlineStr"/>
+      <c r="D630" t="inlineStr">
         <is>
           <t>2024-01-19T12:20:27.554</t>
         </is>
       </c>
-      <c r="E628" t="inlineStr">
+      <c r="E630" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_5 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.5 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" t="inlineStr">
+      <c r="F630" t="inlineStr"/>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-19–13:28-CTyWmdPpssDqs99</t>
         </is>
       </c>
-      <c r="B629" t="inlineStr">
+      <c r="B631" t="inlineStr">
         <is>
           <t>There are multiple heroes that share the same tag within a subtree.
 Within each subtree for which heroes are to be animated (i.e. a PageRoute subtree), each Hero must have a unique non-null tag.
@@ -27191,63 +27247,15 @@
 # Here is the subtree for one of the offending heroes: Hero</t>
         </is>
       </c>
-      <c r="C629" t="inlineStr"/>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>2024-01-19T13:29:00.233</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (Linux; Android 13; Pixel 7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/116.0.0.0 Mobile Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
-        </is>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr"/>
-      <c r="D630" t="inlineStr">
-        <is>
-          <t>2024-01-21T16:00:46.670</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
-        </is>
-      </c>
-      <c r="F630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
-        </is>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
-        </is>
-      </c>
       <c r="C631" t="inlineStr"/>
       <c r="D631" t="inlineStr">
         <is>
-          <t>2024-01-21T16:00:48.380</t>
+          <t>2024-01-19T13:29:00.233</t>
         </is>
       </c>
       <c r="E631" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (Linux; Android 13; Pixel 7) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/116.0.0.0 Mobile Safari/537.36</t>
         </is>
       </c>
       <c r="F631" t="inlineStr"/>
@@ -27255,7 +27263,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
+          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
         </is>
       </c>
       <c r="B632" t="inlineStr">
@@ -27266,12 +27274,12 @@
       <c r="C632" t="inlineStr"/>
       <c r="D632" t="inlineStr">
         <is>
-          <t>2024-01-21T16:01:47.679</t>
+          <t>2024-01-21T16:00:46.670</t>
         </is>
       </c>
       <c r="E632" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F632" t="inlineStr"/>
@@ -27279,7 +27287,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
+          <t>testVersion-V02-24-01-21–15:57-GgPCN5YOxRMpHbi</t>
         </is>
       </c>
       <c r="B633" t="inlineStr">
@@ -27290,12 +27298,12 @@
       <c r="C633" t="inlineStr"/>
       <c r="D633" t="inlineStr">
         <is>
-          <t>2024-01-21T16:03:22.697</t>
+          <t>2024-01-21T16:00:48.380</t>
         </is>
       </c>
       <c r="E633" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F633" t="inlineStr"/>
@@ -27303,7 +27311,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-21–16:04-kQMhlaV4kJdkTWd</t>
+          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
         </is>
       </c>
       <c r="B634" t="inlineStr">
@@ -27314,12 +27322,12 @@
       <c r="C634" t="inlineStr"/>
       <c r="D634" t="inlineStr">
         <is>
-          <t>2024-01-21T16:04:20.535</t>
+          <t>2024-01-21T16:01:47.679</t>
         </is>
       </c>
       <c r="E634" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F634" t="inlineStr"/>
@@ -27327,7 +27335,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+          <t>testVersion-V02-24-01-21–16:01-tgsRoEZbTQAlhW1</t>
         </is>
       </c>
       <c r="B635" t="inlineStr">
@@ -27338,12 +27346,12 @@
       <c r="C635" t="inlineStr"/>
       <c r="D635" t="inlineStr">
         <is>
-          <t>2024-01-23T16:14:09.306</t>
+          <t>2024-01-21T16:03:22.697</t>
         </is>
       </c>
       <c r="E635" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 14_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/14.0.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F635" t="inlineStr"/>
@@ -27351,7 +27359,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+          <t>testVersion-V02-24-01-21–16:04-kQMhlaV4kJdkTWd</t>
         </is>
       </c>
       <c r="B636" t="inlineStr">
@@ -27362,12 +27370,12 @@
       <c r="C636" t="inlineStr"/>
       <c r="D636" t="inlineStr">
         <is>
-          <t>2024-01-23T16:14:25.206</t>
+          <t>2024-01-21T16:04:20.535</t>
         </is>
       </c>
       <c r="E636" t="inlineStr">
         <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_0_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.0 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F636" t="inlineStr"/>
@@ -27386,7 +27394,7 @@
       <c r="C637" t="inlineStr"/>
       <c r="D637" t="inlineStr">
         <is>
-          <t>2024-01-23T20:48:25.548</t>
+          <t>2024-01-23T16:14:09.306</t>
         </is>
       </c>
       <c r="E637" t="inlineStr">
@@ -27399,15 +27407,63 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
+          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C638" t="inlineStr"/>
+      <c r="D638" t="inlineStr">
+        <is>
+          <t>2024-01-23T16:14:25.206</t>
+        </is>
+      </c>
+      <c r="E638" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F638" t="inlineStr"/>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-23–16:14-fiXbSaNQlW5QlD4</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>Unable to load asset: "assets/instructions/InstallIos.png".</t>
+        </is>
+      </c>
+      <c r="C639" t="inlineStr"/>
+      <c r="D639" t="inlineStr">
+        <is>
+          <t>2024-01-23T20:48:25.548</t>
+        </is>
+      </c>
+      <c r="E639" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F639" t="inlineStr"/>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
           <t>testVersion-V02-24-01-23–20:48-d2R10YCryURYw5M</t>
         </is>
       </c>
-      <c r="B638" t="inlineStr">
+      <c r="B640" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C638" t="inlineStr">
+      <c r="C640" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 @https://felpower.github.io/main.dart.js:87557:16
@@ -27431,30 +27487,30 @@
 $1@https://felpower.github.io/main.dart.js:49053:5</t>
         </is>
       </c>
-      <c r="D638" t="inlineStr">
+      <c r="D640" t="inlineStr">
         <is>
           <t>2024-01-23T20:48:51.055</t>
         </is>
       </c>
-      <c r="E638" t="inlineStr">
+      <c r="E640" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" t="inlineStr">
+      <c r="F640" t="inlineStr"/>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-23–20:48-d2R10YCryURYw5M</t>
         </is>
       </c>
-      <c r="B639" t="inlineStr">
+      <c r="B641" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C639" t="inlineStr">
+      <c r="C641" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 @https://felpower.github.io/main.dart.js:87557:16
@@ -27478,30 +27534,30 @@
 $1@https://felpower.github.io/main.dart.js:49053:5</t>
         </is>
       </c>
-      <c r="D639" t="inlineStr">
+      <c r="D641" t="inlineStr">
         <is>
           <t>2024-01-23T20:55:11.878</t>
         </is>
       </c>
-      <c r="E639" t="inlineStr">
+      <c r="E641" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" t="inlineStr">
+      <c r="F641" t="inlineStr"/>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-23–20:48-d2R10YCryURYw5M</t>
         </is>
       </c>
-      <c r="B640" t="inlineStr">
+      <c r="B642" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C640" t="inlineStr">
+      <c r="C642" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 @https://felpower.github.io/main.dart.js:87557:16
@@ -27525,30 +27581,30 @@
 $1@https://felpower.github.io/main.dart.js:49053:5</t>
         </is>
       </c>
-      <c r="D640" t="inlineStr">
+      <c r="D642" t="inlineStr">
         <is>
           <t>2024-01-23T20:56:31.469</t>
         </is>
       </c>
-      <c r="E640" t="inlineStr">
+      <c r="E642" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_2_1 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.2 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" t="inlineStr">
+      <c r="F642" t="inlineStr"/>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–15:04-6LGyDARtp7nxdGt</t>
         </is>
       </c>
-      <c r="B641" t="inlineStr">
+      <c r="B643" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C641" t="inlineStr">
+      <c r="C643" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 @https://felpower.github.io/main.dart.js:87556:16
@@ -27572,30 +27628,30 @@
 $1@https://felpower.github.io/main.dart.js:49048:5</t>
         </is>
       </c>
-      <c r="D641" t="inlineStr">
+      <c r="D643" t="inlineStr">
         <is>
           <t>2024-01-24T15:04:34.972</t>
         </is>
       </c>
-      <c r="E641" t="inlineStr">
+      <c r="E643" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" t="inlineStr">
+      <c r="F643" t="inlineStr"/>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–15:04-6LGyDARtp7nxdGt</t>
         </is>
       </c>
-      <c r="B642" t="inlineStr">
+      <c r="B644" t="inlineStr">
         <is>
           <t>MissingPluginException(No implementation found for method remove on channel flutter_native_splash)</t>
         </is>
       </c>
-      <c r="C642" t="inlineStr">
+      <c r="C644" t="inlineStr">
         <is>
           <t>c@https://felpower.github.io/main.dart.js:5227:28
 @https://felpower.github.io/main.dart.js:87556:16
@@ -27619,30 +27675,30 @@
 $1@https://felpower.github.io/main.dart.js:49048:5</t>
         </is>
       </c>
-      <c r="D642" t="inlineStr">
+      <c r="D644" t="inlineStr">
         <is>
           <t>2024-01-24T15:06:55.129</t>
         </is>
       </c>
-      <c r="E642" t="inlineStr">
+      <c r="E644" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" t="inlineStr">
+      <c r="F644" t="inlineStr"/>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–15:13-P4bFWGQHsftmPwC</t>
         </is>
       </c>
-      <c r="B643" t="inlineStr">
+      <c r="B645" t="inlineStr">
         <is>
           <t>[core/duplicate-app] A Firebase App named "[DEFAULT]" already exists</t>
         </is>
       </c>
-      <c r="C643" t="inlineStr">
+      <c r="C645" t="inlineStr">
         <is>
           <t xml:space="preserve">#0      MethodChannelFirebase.initializeApp (package:firebase_core_platform_interface/src/method_channel/method_channel_firebase.dart:134:11)
 &lt;asynchronous suspension&gt;
@@ -27653,53 +27709,53 @@
 </t>
         </is>
       </c>
-      <c r="D643" t="inlineStr">
+      <c r="D645" t="inlineStr">
         <is>
           <t>2024-01-24T15:13:53.400914</t>
         </is>
       </c>
-      <c r="E643" t="inlineStr">
+      <c r="E645" t="inlineStr">
         <is>
           <t>-</t>
         </is>
       </c>
-      <c r="F643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" t="inlineStr">
+      <c r="F645" t="inlineStr"/>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–15:47-vaPxy9yQ2pobkWa</t>
         </is>
       </c>
-      <c r="B644" t="inlineStr">
+      <c r="B646" t="inlineStr">
         <is>
           <t>changeMusicError</t>
         </is>
       </c>
-      <c r="C644" t="inlineStr">
+      <c r="C646" t="inlineStr">
         <is>
           <t>Null check operator used on a null value</t>
         </is>
       </c>
-      <c r="D644" t="inlineStr">
+      <c r="D646" t="inlineStr">
         <is>
           <t>2024-01-24T15:52:45.477</t>
         </is>
       </c>
-      <c r="E644" t="inlineStr">
+      <c r="E646" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 17_3 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" t="inlineStr">
+      <c r="F646" t="inlineStr"/>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–16:24-WwH0forphPeMnSd</t>
         </is>
       </c>
-      <c r="B645" t="inlineStr">
+      <c r="B647" t="inlineStr">
         <is>
           <t xml:space="preserve">[firebase_database/unknown] Could not convert
 dart-sdk/lib/_internal/js_dev_runtime/private/ddc_runtime/errors.dart 297:3  throw_
@@ -27731,7 +27787,7 @@
 </t>
         </is>
       </c>
-      <c r="C645" t="inlineStr">
+      <c r="C647" t="inlineStr">
         <is>
           <t xml:space="preserve">dart-sdk/lib/_internal/js_dev_runtime/private/ddc_runtime/errors.dart 297:3  throw_
 packages/firebase_database_web/src/database_reference_web.dart 53:7          set
@@ -27757,25 +27813,25 @@
 </t>
         </is>
       </c>
-      <c r="D645" t="inlineStr">
+      <c r="D647" t="inlineStr">
         <is>
           <t>2024-01-24T16:25:08.009</t>
         </is>
       </c>
-      <c r="E645" t="inlineStr">
+      <c r="E647" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" t="inlineStr">
+      <c r="F647" t="inlineStr"/>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–16:24-WwH0forphPeMnSd</t>
         </is>
       </c>
-      <c r="B646" t="inlineStr">
+      <c r="B648" t="inlineStr">
         <is>
           <t xml:space="preserve">[firebase_database/unknown] Could not convert
 dart-sdk/lib/_internal/js_dev_runtime/private/ddc_runtime/errors.dart 297:3  throw_
@@ -27807,7 +27863,7 @@
 </t>
         </is>
       </c>
-      <c r="C646" t="inlineStr">
+      <c r="C648" t="inlineStr">
         <is>
           <t xml:space="preserve">dart-sdk/lib/_internal/js_dev_runtime/private/ddc_runtime/errors.dart 297:3  throw_
 packages/firebase_database_web/src/database_reference_web.dart 53:7          set
@@ -27833,30 +27889,30 @@
 </t>
         </is>
       </c>
-      <c r="D646" t="inlineStr">
+      <c r="D648" t="inlineStr">
         <is>
           <t>2024-01-24T16:26:39.721</t>
         </is>
       </c>
-      <c r="E646" t="inlineStr">
+      <c r="E648" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" t="inlineStr">
+      <c r="F648" t="inlineStr"/>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–16:28-5oknWvcXjO5FlT1</t>
         </is>
       </c>
-      <c r="B647" t="inlineStr">
+      <c r="B649" t="inlineStr">
         <is>
           <t>onUnityCreated</t>
         </is>
       </c>
-      <c r="C647" t="inlineStr">
+      <c r="C649" t="inlineStr">
         <is>
           <t>NoSuchMethodError: 'ready'
 Dynamic call of null.
@@ -27864,824 +27920,768 @@
 Arguments: []</t>
         </is>
       </c>
-      <c r="D647" t="inlineStr">
+      <c r="D649" t="inlineStr">
         <is>
           <t>2024-01-24T16:28:26.240</t>
         </is>
       </c>
-      <c r="E647" t="inlineStr">
+      <c r="E649" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" t="inlineStr">
+      <c r="F649" t="inlineStr"/>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–16:35-3tCtVOuMQrRxcqE</t>
         </is>
       </c>
-      <c r="B648" t="inlineStr">
+      <c r="B650" t="inlineStr">
         <is>
           <t>_UnityScreenState.dispose failed to call super.dispose.
 dispose() implementations must always call their superclass dispose() method, to ensure that all the resources used by the widget are fully released.</t>
         </is>
       </c>
-      <c r="C648" t="inlineStr"/>
-      <c r="D648" t="inlineStr">
+      <c r="C650" t="inlineStr"/>
+      <c r="D650" t="inlineStr">
         <is>
           <t>2024-01-24T16:35:59.559</t>
         </is>
       </c>
-      <c r="E648" t="inlineStr">
+      <c r="E650" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" t="inlineStr">
+      <c r="F650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–17:01-Ny3XRr0BQ6r6QMC</t>
         </is>
       </c>
-      <c r="B649" t="inlineStr">
+      <c r="B651" t="inlineStr">
         <is>
           <t>_UnityScreenState.dispose failed to call super.dispose.
 dispose() implementations must always call their superclass dispose() method, to ensure that all the resources used by the widget are fully released.</t>
         </is>
       </c>
-      <c r="C649" t="inlineStr"/>
-      <c r="D649" t="inlineStr">
+      <c r="C651" t="inlineStr"/>
+      <c r="D651" t="inlineStr">
         <is>
           <t>2024-01-24T17:01:24.664</t>
         </is>
       </c>
-      <c r="E649" t="inlineStr">
+      <c r="E651" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" t="inlineStr">
+      <c r="F651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:10-lQhylEVtncdtzCJ</t>
         </is>
       </c>
-      <c r="B650" t="inlineStr">
+      <c r="B652" t="inlineStr">
         <is>
           <t>closeFABError</t>
         </is>
       </c>
-      <c r="C650" t="inlineStr">
+      <c r="C652" t="inlineStr">
         <is>
           <t>Close FAB pressed</t>
         </is>
       </c>
-      <c r="D650" t="inlineStr">
+      <c r="D652" t="inlineStr">
         <is>
           <t>2024-01-24T18:12:16.247</t>
         </is>
       </c>
-      <c r="E650" t="inlineStr">
+      <c r="E652" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" t="inlineStr">
+      <c r="F652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B651" t="inlineStr">
+      <c r="B653" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C651" t="inlineStr"/>
-      <c r="D651" t="inlineStr">
+      <c r="C653" t="inlineStr"/>
+      <c r="D653" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.133</t>
         </is>
       </c>
-      <c r="E651" t="inlineStr">
+      <c r="E653" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" t="inlineStr">
+      <c r="F653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B652" t="inlineStr">
+      <c r="B654" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C652" t="inlineStr"/>
-      <c r="D652" t="inlineStr">
+      <c r="C654" t="inlineStr"/>
+      <c r="D654" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.176</t>
         </is>
       </c>
-      <c r="E652" t="inlineStr">
+      <c r="E654" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" t="inlineStr">
+      <c r="F654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B653" t="inlineStr">
+      <c r="B655" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C653" t="inlineStr"/>
-      <c r="D653" t="inlineStr">
+      <c r="C655" t="inlineStr"/>
+      <c r="D655" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.223</t>
         </is>
       </c>
-      <c r="E653" t="inlineStr">
+      <c r="E655" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" t="inlineStr">
+      <c r="F655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B654" t="inlineStr">
+      <c r="B656" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C654" t="inlineStr"/>
-      <c r="D654" t="inlineStr">
+      <c r="C656" t="inlineStr"/>
+      <c r="D656" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.274</t>
         </is>
       </c>
-      <c r="E654" t="inlineStr">
+      <c r="E656" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" t="inlineStr">
+      <c r="F656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B655" t="inlineStr">
+      <c r="B657" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C655" t="inlineStr"/>
-      <c r="D655" t="inlineStr">
+      <c r="C657" t="inlineStr"/>
+      <c r="D657" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.322</t>
         </is>
       </c>
-      <c r="E655" t="inlineStr">
+      <c r="E657" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" t="inlineStr">
+      <c r="F657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B656" t="inlineStr">
+      <c r="B658" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C656" t="inlineStr"/>
-      <c r="D656" t="inlineStr">
+      <c r="C658" t="inlineStr"/>
+      <c r="D658" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.371</t>
         </is>
       </c>
-      <c r="E656" t="inlineStr">
+      <c r="E658" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" t="inlineStr">
+      <c r="F658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B657" t="inlineStr">
+      <c r="B659" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C657" t="inlineStr"/>
-      <c r="D657" t="inlineStr">
+      <c r="C659" t="inlineStr"/>
+      <c r="D659" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.413</t>
         </is>
       </c>
-      <c r="E657" t="inlineStr">
+      <c r="E659" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" t="inlineStr">
+      <c r="F659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B658" t="inlineStr">
+      <c r="B660" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C658" t="inlineStr"/>
-      <c r="D658" t="inlineStr">
+      <c r="C660" t="inlineStr"/>
+      <c r="D660" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.450</t>
         </is>
       </c>
-      <c r="E658" t="inlineStr">
+      <c r="E660" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" t="inlineStr">
+      <c r="F660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B659" t="inlineStr">
+      <c r="B661" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C659" t="inlineStr"/>
-      <c r="D659" t="inlineStr">
+      <c r="C661" t="inlineStr"/>
+      <c r="D661" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.488</t>
         </is>
       </c>
-      <c r="E659" t="inlineStr">
+      <c r="E661" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" t="inlineStr">
+      <c r="F661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B660" t="inlineStr">
+      <c r="B662" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C660" t="inlineStr"/>
-      <c r="D660" t="inlineStr">
+      <c r="C662" t="inlineStr"/>
+      <c r="D662" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.527</t>
         </is>
       </c>
-      <c r="E660" t="inlineStr">
+      <c r="E662" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" t="inlineStr">
+      <c r="F662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B661" t="inlineStr">
+      <c r="B663" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C661" t="inlineStr"/>
-      <c r="D661" t="inlineStr">
+      <c r="C663" t="inlineStr"/>
+      <c r="D663" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.569</t>
         </is>
       </c>
-      <c r="E661" t="inlineStr">
+      <c r="E663" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" t="inlineStr">
+      <c r="F663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B662" t="inlineStr">
+      <c r="B664" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C662" t="inlineStr"/>
-      <c r="D662" t="inlineStr">
+      <c r="C664" t="inlineStr"/>
+      <c r="D664" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.601</t>
         </is>
       </c>
-      <c r="E662" t="inlineStr">
+      <c r="E664" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" t="inlineStr">
+      <c r="F664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B663" t="inlineStr">
+      <c r="B665" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C663" t="inlineStr"/>
-      <c r="D663" t="inlineStr">
+      <c r="C665" t="inlineStr"/>
+      <c r="D665" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.642</t>
         </is>
       </c>
-      <c r="E663" t="inlineStr">
+      <c r="E665" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" t="inlineStr">
+      <c r="F665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B664" t="inlineStr">
+      <c r="B666" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C664" t="inlineStr"/>
-      <c r="D664" t="inlineStr">
+      <c r="C666" t="inlineStr"/>
+      <c r="D666" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.675</t>
         </is>
       </c>
-      <c r="E664" t="inlineStr">
+      <c r="E666" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" t="inlineStr">
+      <c r="F666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B665" t="inlineStr">
+      <c r="B667" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C665" t="inlineStr"/>
-      <c r="D665" t="inlineStr">
+      <c r="C667" t="inlineStr"/>
+      <c r="D667" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.717</t>
         </is>
       </c>
-      <c r="E665" t="inlineStr">
+      <c r="E667" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" t="inlineStr">
+      <c r="F667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B666" t="inlineStr">
+      <c r="B668" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C666" t="inlineStr"/>
-      <c r="D666" t="inlineStr">
+      <c r="C668" t="inlineStr"/>
+      <c r="D668" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.765</t>
         </is>
       </c>
-      <c r="E666" t="inlineStr">
+      <c r="E668" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" t="inlineStr">
+      <c r="F668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B667" t="inlineStr">
+      <c r="B669" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C667" t="inlineStr"/>
-      <c r="D667" t="inlineStr">
+      <c r="C669" t="inlineStr"/>
+      <c r="D669" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.813</t>
         </is>
       </c>
-      <c r="E667" t="inlineStr">
+      <c r="E669" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" t="inlineStr">
+      <c r="F669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B668" t="inlineStr">
+      <c r="B670" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C668" t="inlineStr"/>
-      <c r="D668" t="inlineStr">
+      <c r="C670" t="inlineStr"/>
+      <c r="D670" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.854</t>
         </is>
       </c>
-      <c r="E668" t="inlineStr">
+      <c r="E670" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" t="inlineStr">
+      <c r="F670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B669" t="inlineStr">
+      <c r="B671" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C669" t="inlineStr"/>
-      <c r="D669" t="inlineStr">
+      <c r="C671" t="inlineStr"/>
+      <c r="D671" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.886</t>
         </is>
       </c>
-      <c r="E669" t="inlineStr">
+      <c r="E671" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" t="inlineStr">
+      <c r="F671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B670" t="inlineStr">
+      <c r="B672" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C670" t="inlineStr"/>
-      <c r="D670" t="inlineStr">
+      <c r="C672" t="inlineStr"/>
+      <c r="D672" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.916</t>
         </is>
       </c>
-      <c r="E670" t="inlineStr">
+      <c r="E672" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" t="inlineStr">
+      <c r="F672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B671" t="inlineStr">
+      <c r="B673" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C671" t="inlineStr"/>
-      <c r="D671" t="inlineStr">
+      <c r="C673" t="inlineStr"/>
+      <c r="D673" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.944</t>
         </is>
       </c>
-      <c r="E671" t="inlineStr">
+      <c r="E673" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" t="inlineStr">
+      <c r="F673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B672" t="inlineStr">
+      <c r="B674" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C672" t="inlineStr"/>
-      <c r="D672" t="inlineStr">
+      <c r="C674" t="inlineStr"/>
+      <c r="D674" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.969</t>
         </is>
       </c>
-      <c r="E672" t="inlineStr">
+      <c r="E674" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" t="inlineStr">
+      <c r="F674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B673" t="inlineStr">
+      <c r="B675" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C673" t="inlineStr"/>
-      <c r="D673" t="inlineStr">
+      <c r="C675" t="inlineStr"/>
+      <c r="D675" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:21.997</t>
         </is>
       </c>
-      <c r="E673" t="inlineStr">
+      <c r="E675" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" t="inlineStr">
+      <c r="F675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B674" t="inlineStr">
+      <c r="B676" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C674" t="inlineStr"/>
-      <c r="D674" t="inlineStr">
+      <c r="C676" t="inlineStr"/>
+      <c r="D676" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:22.022</t>
         </is>
       </c>
-      <c r="E674" t="inlineStr">
+      <c r="E676" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" t="inlineStr">
+      <c r="F676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B675" t="inlineStr">
+      <c r="B677" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C675" t="inlineStr"/>
-      <c r="D675" t="inlineStr">
+      <c r="C677" t="inlineStr"/>
+      <c r="D677" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:22.047</t>
         </is>
       </c>
-      <c r="E675" t="inlineStr">
+      <c r="E677" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
         </is>
       </c>
-      <c r="F675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" t="inlineStr">
+      <c r="F677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:18-D2PPzXI32fhtj1D</t>
         </is>
       </c>
-      <c r="B676" t="inlineStr">
+      <c r="B678" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C676" t="inlineStr"/>
-      <c r="D676" t="inlineStr">
+      <c r="C678" t="inlineStr"/>
+      <c r="D678" t="inlineStr">
         <is>
           <t>2024-01-24T18:18:22.076</t>
         </is>
       </c>
-      <c r="E676" t="inlineStr">
+      <c r="E678" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
-        </is>
-      </c>
-      <c r="F676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
-        </is>
-      </c>
-      <c r="B677" t="inlineStr">
-        <is>
-          <t>changeMusicError</t>
-        </is>
-      </c>
-      <c r="C677" t="inlineStr">
-        <is>
-          <t>Unity not ready</t>
-        </is>
-      </c>
-      <c r="D677" t="inlineStr">
-        <is>
-          <t>2024-01-24T18:19:40.335</t>
-        </is>
-      </c>
-      <c r="E677" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
-        </is>
-      </c>
-      <c r="F677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
-        </is>
-      </c>
-      <c r="B678" t="inlineStr">
-        <is>
-          <t>closeFABError</t>
-        </is>
-      </c>
-      <c r="C678" t="inlineStr">
-        <is>
-          <t>Close FAB pressed</t>
-        </is>
-      </c>
-      <c r="D678" t="inlineStr">
-        <is>
-          <t>2024-01-24T18:19:44.487</t>
-        </is>
-      </c>
-      <c r="E678" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
       <c r="F678" t="inlineStr"/>
@@ -28704,7 +28704,7 @@
       </c>
       <c r="D679" t="inlineStr">
         <is>
-          <t>2024-01-24T18:21:23.349</t>
+          <t>2024-01-24T18:19:40.335</t>
         </is>
       </c>
       <c r="E679" t="inlineStr">
@@ -28732,7 +28732,7 @@
       </c>
       <c r="D680" t="inlineStr">
         <is>
-          <t>2024-01-24T18:21:28.346</t>
+          <t>2024-01-24T18:19:44.487</t>
         </is>
       </c>
       <c r="E680" t="inlineStr">
@@ -28760,7 +28760,7 @@
       </c>
       <c r="D681" t="inlineStr">
         <is>
-          <t>2024-01-24T18:21:48.031</t>
+          <t>2024-01-24T18:21:23.349</t>
         </is>
       </c>
       <c r="E681" t="inlineStr">
@@ -28788,7 +28788,7 @@
       </c>
       <c r="D682" t="inlineStr">
         <is>
-          <t>2024-01-24T18:21:52.533</t>
+          <t>2024-01-24T18:21:28.346</t>
         </is>
       </c>
       <c r="E682" t="inlineStr">
@@ -28801,22 +28801,22 @@
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
         </is>
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>postUnityMessageJsonError</t>
+          <t>changeMusicError</t>
         </is>
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t>Unity not ready still trying to post message Json</t>
+          <t>Unity not ready</t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:06.350</t>
+          <t>2024-01-24T18:21:48.031</t>
         </is>
       </c>
       <c r="E683" t="inlineStr">
@@ -28829,22 +28829,22 @@
     <row r="684">
       <c r="A684" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
+          <t>testVersion-V02-24-01-24–18:19-QEcJwaRnguBytis</t>
         </is>
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>changeMusicError</t>
+          <t>closeFABError</t>
         </is>
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t>Unity not ready</t>
+          <t>Close FAB pressed</t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:06.352</t>
+          <t>2024-01-24T18:21:52.533</t>
         </is>
       </c>
       <c r="E684" t="inlineStr">
@@ -28862,17 +28862,17 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>closeFABError</t>
+          <t>postUnityMessageJsonError</t>
         </is>
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t>Close FAB pressed</t>
+          <t>Unity not ready still trying to post message Json</t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:11.169</t>
+          <t>2024-01-24T18:25:06.350</t>
         </is>
       </c>
       <c r="E685" t="inlineStr">
@@ -28890,17 +28890,17 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>postUnityMessageJsonError</t>
+          <t>changeMusicError</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t>Unity not ready still trying to post message Json</t>
+          <t>Unity not ready</t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:27.579</t>
+          <t>2024-01-24T18:25:06.352</t>
         </is>
       </c>
       <c r="E686" t="inlineStr">
@@ -28918,17 +28918,17 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>changeMusicError</t>
+          <t>closeFABError</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t>Unity not ready</t>
+          <t>Close FAB pressed</t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:27.581</t>
+          <t>2024-01-24T18:25:11.169</t>
         </is>
       </c>
       <c r="E687" t="inlineStr">
@@ -28946,17 +28946,17 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>changeMusicError</t>
+          <t>postUnityMessageJsonError</t>
         </is>
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t>Unity not ready</t>
+          <t>Unity not ready still trying to post message Json</t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:33.090</t>
+          <t>2024-01-24T18:25:27.579</t>
         </is>
       </c>
       <c r="E688" t="inlineStr">
@@ -28984,7 +28984,7 @@
       </c>
       <c r="D689" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:34.552</t>
+          <t>2024-01-24T18:25:27.581</t>
         </is>
       </c>
       <c r="E689" t="inlineStr">
@@ -29012,7 +29012,7 @@
       </c>
       <c r="D690" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:36.571</t>
+          <t>2024-01-24T18:25:33.090</t>
         </is>
       </c>
       <c r="E690" t="inlineStr">
@@ -29040,7 +29040,7 @@
       </c>
       <c r="D691" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:39.109</t>
+          <t>2024-01-24T18:25:34.552</t>
         </is>
       </c>
       <c r="E691" t="inlineStr">
@@ -29068,7 +29068,7 @@
       </c>
       <c r="D692" t="inlineStr">
         <is>
-          <t>2024-01-24T18:25:40.756</t>
+          <t>2024-01-24T18:25:36.571</t>
         </is>
       </c>
       <c r="E692" t="inlineStr">
@@ -29081,22 +29081,22 @@
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:30-XKus7ZSpHDRFPNl</t>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
         </is>
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>postUnityMessageJsonError</t>
+          <t>changeMusicError</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t>Unity not ready still trying to post message Json</t>
+          <t>Unity not ready</t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
         <is>
-          <t>2024-01-24T18:30:30.538</t>
+          <t>2024-01-24T18:25:39.109</t>
         </is>
       </c>
       <c r="E693" t="inlineStr">
@@ -29109,22 +29109,22 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+          <t>testVersion-V02-24-01-24–18:22-2H7csOnBDMga90U</t>
         </is>
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>postUnityMessageJsonError</t>
+          <t>changeMusicError</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t>Unity not ready still trying to post message Json</t>
+          <t>Unity not ready</t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
         <is>
-          <t>2024-01-24T18:32:38.623</t>
+          <t>2024-01-24T18:25:40.756</t>
         </is>
       </c>
       <c r="E694" t="inlineStr">
@@ -29137,22 +29137,22 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+          <t>testVersion-V02-24-01-24–18:30-XKus7ZSpHDRFPNl</t>
         </is>
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>postUnityMessageError</t>
+          <t>postUnityMessageJsonError</t>
         </is>
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unity not ready still trying to post message </t>
+          <t>Unity not ready still trying to post message Json</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
         <is>
-          <t>2024-01-24T18:32:41.556</t>
+          <t>2024-01-24T18:30:30.538</t>
         </is>
       </c>
       <c r="E695" t="inlineStr">
@@ -29170,17 +29170,17 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>postUnityMessageError</t>
+          <t>postUnityMessageJsonError</t>
         </is>
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unity not ready still trying to post message </t>
+          <t>Unity not ready still trying to post message Json</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
         <is>
-          <t>2024-01-24T18:32:43.273</t>
+          <t>2024-01-24T18:32:38.623</t>
         </is>
       </c>
       <c r="E696" t="inlineStr">
@@ -29197,852 +29197,852 @@
         </is>
       </c>
       <c r="B697" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C697" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D697" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:32:41.556</t>
+        </is>
+      </c>
+      <c r="E697" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C698" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D698" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:32:43.273</t>
+        </is>
+      </c>
+      <c r="E698" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C697" t="inlineStr"/>
-      <c r="D697" t="inlineStr">
+      <c r="C699" t="inlineStr"/>
+      <c r="D699" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:27.940</t>
         </is>
       </c>
-      <c r="E697" t="inlineStr">
+      <c r="E699" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" t="inlineStr">
+      <c r="F699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B698" t="inlineStr">
+      <c r="B700" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C698" t="inlineStr"/>
-      <c r="D698" t="inlineStr">
+      <c r="C700" t="inlineStr"/>
+      <c r="D700" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:27.972</t>
         </is>
       </c>
-      <c r="E698" t="inlineStr">
+      <c r="E700" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" t="inlineStr">
+      <c r="F700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B699" t="inlineStr">
+      <c r="B701" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C699" t="inlineStr"/>
-      <c r="D699" t="inlineStr">
+      <c r="C701" t="inlineStr"/>
+      <c r="D701" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:27.988</t>
         </is>
       </c>
-      <c r="E699" t="inlineStr">
+      <c r="E701" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" t="inlineStr">
+      <c r="F701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B700" t="inlineStr">
+      <c r="B702" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C700" t="inlineStr"/>
-      <c r="D700" t="inlineStr">
+      <c r="C702" t="inlineStr"/>
+      <c r="D702" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.006</t>
         </is>
       </c>
-      <c r="E700" t="inlineStr">
+      <c r="E702" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" t="inlineStr">
+      <c r="F702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B701" t="inlineStr">
+      <c r="B703" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C701" t="inlineStr"/>
-      <c r="D701" t="inlineStr">
+      <c r="C703" t="inlineStr"/>
+      <c r="D703" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.025</t>
         </is>
       </c>
-      <c r="E701" t="inlineStr">
+      <c r="E703" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" t="inlineStr">
+      <c r="F703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B702" t="inlineStr">
+      <c r="B704" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C702" t="inlineStr"/>
-      <c r="D702" t="inlineStr">
+      <c r="C704" t="inlineStr"/>
+      <c r="D704" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.041</t>
         </is>
       </c>
-      <c r="E702" t="inlineStr">
+      <c r="E704" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" t="inlineStr">
+      <c r="F704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B703" t="inlineStr">
+      <c r="B705" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C703" t="inlineStr"/>
-      <c r="D703" t="inlineStr">
+      <c r="C705" t="inlineStr"/>
+      <c r="D705" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.060</t>
         </is>
       </c>
-      <c r="E703" t="inlineStr">
+      <c r="E705" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" t="inlineStr">
+      <c r="F705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B704" t="inlineStr">
+      <c r="B706" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C704" t="inlineStr"/>
-      <c r="D704" t="inlineStr">
+      <c r="C706" t="inlineStr"/>
+      <c r="D706" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.076</t>
         </is>
       </c>
-      <c r="E704" t="inlineStr">
+      <c r="E706" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" t="inlineStr">
+      <c r="F706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B705" t="inlineStr">
+      <c r="B707" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C705" t="inlineStr"/>
-      <c r="D705" t="inlineStr">
+      <c r="C707" t="inlineStr"/>
+      <c r="D707" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.094</t>
         </is>
       </c>
-      <c r="E705" t="inlineStr">
+      <c r="E707" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" t="inlineStr">
+      <c r="F707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B706" t="inlineStr">
+      <c r="B708" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C706" t="inlineStr"/>
-      <c r="D706" t="inlineStr">
+      <c r="C708" t="inlineStr"/>
+      <c r="D708" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.111</t>
         </is>
       </c>
-      <c r="E706" t="inlineStr">
+      <c r="E708" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" t="inlineStr">
+      <c r="F708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B707" t="inlineStr">
+      <c r="B709" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C707" t="inlineStr"/>
-      <c r="D707" t="inlineStr">
+      <c r="C709" t="inlineStr"/>
+      <c r="D709" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.127</t>
         </is>
       </c>
-      <c r="E707" t="inlineStr">
+      <c r="E709" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" t="inlineStr">
+      <c r="F709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B708" t="inlineStr">
+      <c r="B710" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C708" t="inlineStr"/>
-      <c r="D708" t="inlineStr">
+      <c r="C710" t="inlineStr"/>
+      <c r="D710" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.147</t>
         </is>
       </c>
-      <c r="E708" t="inlineStr">
+      <c r="E710" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" t="inlineStr">
+      <c r="F710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B709" t="inlineStr">
+      <c r="B711" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C709" t="inlineStr"/>
-      <c r="D709" t="inlineStr">
+      <c r="C711" t="inlineStr"/>
+      <c r="D711" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.162</t>
         </is>
       </c>
-      <c r="E709" t="inlineStr">
+      <c r="E711" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" t="inlineStr">
+      <c r="F711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B710" t="inlineStr">
+      <c r="B712" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C710" t="inlineStr"/>
-      <c r="D710" t="inlineStr">
+      <c r="C712" t="inlineStr"/>
+      <c r="D712" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.179</t>
         </is>
       </c>
-      <c r="E710" t="inlineStr">
+      <c r="E712" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" t="inlineStr">
+      <c r="F712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B711" t="inlineStr">
+      <c r="B713" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C711" t="inlineStr"/>
-      <c r="D711" t="inlineStr">
+      <c r="C713" t="inlineStr"/>
+      <c r="D713" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.196</t>
         </is>
       </c>
-      <c r="E711" t="inlineStr">
+      <c r="E713" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" t="inlineStr">
+      <c r="F713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B712" t="inlineStr">
+      <c r="B714" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C712" t="inlineStr"/>
-      <c r="D712" t="inlineStr">
+      <c r="C714" t="inlineStr"/>
+      <c r="D714" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.210</t>
         </is>
       </c>
-      <c r="E712" t="inlineStr">
+      <c r="E714" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" t="inlineStr">
+      <c r="F714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B713" t="inlineStr">
+      <c r="B715" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C713" t="inlineStr"/>
-      <c r="D713" t="inlineStr">
+      <c r="C715" t="inlineStr"/>
+      <c r="D715" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.229</t>
         </is>
       </c>
-      <c r="E713" t="inlineStr">
+      <c r="E715" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" t="inlineStr">
+      <c r="F715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B714" t="inlineStr">
+      <c r="B716" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C714" t="inlineStr"/>
-      <c r="D714" t="inlineStr">
+      <c r="C716" t="inlineStr"/>
+      <c r="D716" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.247</t>
         </is>
       </c>
-      <c r="E714" t="inlineStr">
+      <c r="E716" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" t="inlineStr">
+      <c r="F716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B715" t="inlineStr">
+      <c r="B717" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C715" t="inlineStr"/>
-      <c r="D715" t="inlineStr">
+      <c r="C717" t="inlineStr"/>
+      <c r="D717" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.263</t>
         </is>
       </c>
-      <c r="E715" t="inlineStr">
+      <c r="E717" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" t="inlineStr">
+      <c r="F717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B716" t="inlineStr">
+      <c r="B718" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C716" t="inlineStr"/>
-      <c r="D716" t="inlineStr">
+      <c r="C718" t="inlineStr"/>
+      <c r="D718" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.281</t>
         </is>
       </c>
-      <c r="E716" t="inlineStr">
+      <c r="E718" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" t="inlineStr">
+      <c r="F718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B717" t="inlineStr">
+      <c r="B719" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C717" t="inlineStr"/>
-      <c r="D717" t="inlineStr">
+      <c r="C719" t="inlineStr"/>
+      <c r="D719" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.300</t>
         </is>
       </c>
-      <c r="E717" t="inlineStr">
+      <c r="E719" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" t="inlineStr">
+      <c r="F719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B718" t="inlineStr">
+      <c r="B720" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C718" t="inlineStr"/>
-      <c r="D718" t="inlineStr">
+      <c r="C720" t="inlineStr"/>
+      <c r="D720" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.318</t>
         </is>
       </c>
-      <c r="E718" t="inlineStr">
+      <c r="E720" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" t="inlineStr">
+      <c r="F720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B719" t="inlineStr">
+      <c r="B721" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C719" t="inlineStr"/>
-      <c r="D719" t="inlineStr">
+      <c r="C721" t="inlineStr"/>
+      <c r="D721" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.337</t>
         </is>
       </c>
-      <c r="E719" t="inlineStr">
+      <c r="E721" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" t="inlineStr">
+      <c r="F721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B720" t="inlineStr">
+      <c r="B722" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C720" t="inlineStr"/>
-      <c r="D720" t="inlineStr">
+      <c r="C722" t="inlineStr"/>
+      <c r="D722" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.355</t>
         </is>
       </c>
-      <c r="E720" t="inlineStr">
+      <c r="E722" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" t="inlineStr">
+      <c r="F722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B721" t="inlineStr">
+      <c r="B723" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C721" t="inlineStr"/>
-      <c r="D721" t="inlineStr">
+      <c r="C723" t="inlineStr"/>
+      <c r="D723" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.371</t>
         </is>
       </c>
-      <c r="E721" t="inlineStr">
+      <c r="E723" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" t="inlineStr">
+      <c r="F723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B722" t="inlineStr">
+      <c r="B724" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C722" t="inlineStr"/>
-      <c r="D722" t="inlineStr">
+      <c r="C724" t="inlineStr"/>
+      <c r="D724" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.387</t>
         </is>
       </c>
-      <c r="E722" t="inlineStr">
+      <c r="E724" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" t="inlineStr">
+      <c r="F724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B723" t="inlineStr">
+      <c r="B725" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C723" t="inlineStr"/>
-      <c r="D723" t="inlineStr">
+      <c r="C725" t="inlineStr"/>
+      <c r="D725" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.404</t>
         </is>
       </c>
-      <c r="E723" t="inlineStr">
+      <c r="E725" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" t="inlineStr">
+      <c r="F725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B724" t="inlineStr">
+      <c r="B726" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C724" t="inlineStr"/>
-      <c r="D724" t="inlineStr">
+      <c r="C726" t="inlineStr"/>
+      <c r="D726" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.418</t>
         </is>
       </c>
-      <c r="E724" t="inlineStr">
+      <c r="E726" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" t="inlineStr">
+      <c r="F726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B725" t="inlineStr">
+      <c r="B727" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C725" t="inlineStr"/>
-      <c r="D725" t="inlineStr">
+      <c r="C727" t="inlineStr"/>
+      <c r="D727" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.433</t>
         </is>
       </c>
-      <c r="E725" t="inlineStr">
+      <c r="E727" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" t="inlineStr">
+      <c r="F727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B726" t="inlineStr">
+      <c r="B728" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C726" t="inlineStr"/>
-      <c r="D726" t="inlineStr">
+      <c r="C728" t="inlineStr"/>
+      <c r="D728" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.447</t>
         </is>
       </c>
-      <c r="E726" t="inlineStr">
+      <c r="E728" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" t="inlineStr">
+      <c r="F728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
         <is>
           <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
-      <c r="B727" t="inlineStr">
+      <c r="B729" t="inlineStr">
         <is>
           <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
 !isDisposed
 "Trying to render a disposed EngineFlutterView."</t>
         </is>
       </c>
-      <c r="C727" t="inlineStr"/>
-      <c r="D727" t="inlineStr">
+      <c r="C729" t="inlineStr"/>
+      <c r="D729" t="inlineStr">
         <is>
           <t>2024-01-24T18:33:28.461</t>
-        </is>
-      </c>
-      <c r="E727" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
-        </is>
-      </c>
-      <c r="F727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
-        </is>
-      </c>
-      <c r="B728" t="inlineStr">
-        <is>
-          <t>postUnityMessageJsonError</t>
-        </is>
-      </c>
-      <c r="C728" t="inlineStr">
-        <is>
-          <t>Unity not ready still trying to post message Json</t>
-        </is>
-      </c>
-      <c r="D728" t="inlineStr">
-        <is>
-          <t>2024-01-24T18:33:40.347</t>
-        </is>
-      </c>
-      <c r="E728" t="inlineStr">
-        <is>
-          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
-        </is>
-      </c>
-      <c r="F728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" t="inlineStr">
-        <is>
-          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
-        </is>
-      </c>
-      <c r="B729" t="inlineStr">
-        <is>
-          <t>postUnityMessageError</t>
-        </is>
-      </c>
-      <c r="C729" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Unity not ready still trying to post message </t>
-        </is>
-      </c>
-      <c r="D729" t="inlineStr">
-        <is>
-          <t>2024-01-24T18:33:48.019</t>
         </is>
       </c>
       <c r="E729" t="inlineStr">
@@ -30060,17 +30060,17 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>postUnityMessageError</t>
+          <t>postUnityMessageJsonError</t>
         </is>
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unity not ready still trying to post message </t>
+          <t>Unity not ready still trying to post message Json</t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
         <is>
-          <t>2024-01-24T18:33:50.594</t>
+          <t>2024-01-24T18:33:40.347</t>
         </is>
       </c>
       <c r="E730" t="inlineStr">
@@ -30083,22 +30083,22 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>postUnityMessageJsonError</t>
+          <t>postUnityMessageError</t>
         </is>
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t>Unity not ready still trying to post message Json</t>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
         <is>
-          <t>2024-01-24T18:40:24.204</t>
+          <t>2024-01-24T18:33:48.019</t>
         </is>
       </c>
       <c r="E731" t="inlineStr">
@@ -30111,7 +30111,7 @@
     <row r="732">
       <c r="A732" t="inlineStr">
         <is>
-          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+          <t>testVersion-V02-24-01-24–18:32-aMA9lRp8Llsn8aU</t>
         </is>
       </c>
       <c r="B732" t="inlineStr">
@@ -30126,7 +30126,7 @@
       </c>
       <c r="D732" t="inlineStr">
         <is>
-          <t>2024-01-24T18:40:27.518</t>
+          <t>2024-01-24T18:33:50.594</t>
         </is>
       </c>
       <c r="E732" t="inlineStr">
@@ -30144,25 +30144,2160 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C733" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D733" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:40:24.204</t>
+        </is>
+      </c>
+      <c r="E733" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
           <t>postUnityMessageError</t>
         </is>
       </c>
-      <c r="C733" t="inlineStr">
+      <c r="C734" t="inlineStr">
         <is>
           <t xml:space="preserve">Unity not ready still trying to post message </t>
         </is>
       </c>
-      <c r="D733" t="inlineStr">
+      <c r="D734" t="inlineStr">
+        <is>
+          <t>2024-01-24T18:40:27.518</t>
+        </is>
+      </c>
+      <c r="E734" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-24–18:40-ZAYRpWWifQqAkOn</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>postUnityMessageError</t>
+        </is>
+      </c>
+      <c r="C735" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Unity not ready still trying to post message </t>
+        </is>
+      </c>
+      <c r="D735" t="inlineStr">
         <is>
           <t>2024-01-24T18:40:28.419</t>
         </is>
       </c>
-      <c r="E733" t="inlineStr">
+      <c r="E735" t="inlineStr">
         <is>
           <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
         </is>
       </c>
-      <c r="F733" t="inlineStr"/>
+      <c r="F735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:47-hCJ9DrrzcaqCnk0</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>postUnityMessageJsonError</t>
+        </is>
+      </c>
+      <c r="C736" t="inlineStr">
+        <is>
+          <t>Unity not ready still trying to post message Json</t>
+        </is>
+      </c>
+      <c r="D736" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:50:02.587</t>
+        </is>
+      </c>
+      <c r="E736" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Macintosh; Intel Mac OS X 10_15_7) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/17.3 Safari/605.1.15</t>
+        </is>
+      </c>
+      <c r="F736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C737" t="inlineStr"/>
+      <c r="D737" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.658</t>
+        </is>
+      </c>
+      <c r="E737" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C738" t="inlineStr"/>
+      <c r="D738" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.689</t>
+        </is>
+      </c>
+      <c r="E738" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C739" t="inlineStr"/>
+      <c r="D739" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.707</t>
+        </is>
+      </c>
+      <c r="E739" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C740" t="inlineStr"/>
+      <c r="D740" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.724</t>
+        </is>
+      </c>
+      <c r="E740" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C741" t="inlineStr"/>
+      <c r="D741" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.741</t>
+        </is>
+      </c>
+      <c r="E741" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C742" t="inlineStr"/>
+      <c r="D742" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.760</t>
+        </is>
+      </c>
+      <c r="E742" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C743" t="inlineStr"/>
+      <c r="D743" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.779</t>
+        </is>
+      </c>
+      <c r="E743" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C744" t="inlineStr"/>
+      <c r="D744" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.795</t>
+        </is>
+      </c>
+      <c r="E744" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C745" t="inlineStr"/>
+      <c r="D745" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.812</t>
+        </is>
+      </c>
+      <c r="E745" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C746" t="inlineStr"/>
+      <c r="D746" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.833</t>
+        </is>
+      </c>
+      <c r="E746" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C747" t="inlineStr"/>
+      <c r="D747" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.853</t>
+        </is>
+      </c>
+      <c r="E747" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C748" t="inlineStr"/>
+      <c r="D748" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.895</t>
+        </is>
+      </c>
+      <c r="E748" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C749" t="inlineStr"/>
+      <c r="D749" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.930</t>
+        </is>
+      </c>
+      <c r="E749" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C750" t="inlineStr"/>
+      <c r="D750" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.961</t>
+        </is>
+      </c>
+      <c r="E750" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C751" t="inlineStr"/>
+      <c r="D751" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:18.988</t>
+        </is>
+      </c>
+      <c r="E751" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C752" t="inlineStr"/>
+      <c r="D752" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.011</t>
+        </is>
+      </c>
+      <c r="E752" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C753" t="inlineStr"/>
+      <c r="D753" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.040</t>
+        </is>
+      </c>
+      <c r="E753" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C754" t="inlineStr"/>
+      <c r="D754" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.065</t>
+        </is>
+      </c>
+      <c r="E754" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C755" t="inlineStr"/>
+      <c r="D755" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.087</t>
+        </is>
+      </c>
+      <c r="E755" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C756" t="inlineStr"/>
+      <c r="D756" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.107</t>
+        </is>
+      </c>
+      <c r="E756" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C757" t="inlineStr"/>
+      <c r="D757" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.130</t>
+        </is>
+      </c>
+      <c r="E757" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C758" t="inlineStr"/>
+      <c r="D758" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.151</t>
+        </is>
+      </c>
+      <c r="E758" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C759" t="inlineStr"/>
+      <c r="D759" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.169</t>
+        </is>
+      </c>
+      <c r="E759" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:54-HGJqLFVSJjxlfIy</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C760" t="inlineStr"/>
+      <c r="D760" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:54:19.187</t>
+        </is>
+      </c>
+      <c r="E760" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–13:55-zG61WLFECqKVuiR</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C761" t="inlineStr"/>
+      <c r="D761" t="inlineStr">
+        <is>
+          <t>2024-01-25T13:56:11.452</t>
+        </is>
+      </c>
+      <c r="E761" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C762" t="inlineStr"/>
+      <c r="D762" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:11:54.409</t>
+        </is>
+      </c>
+      <c r="E762" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>setState() called after dispose(): _UnityScreenState#e5fdd(lifecycle state: defunct, not mounted)
+This error happens if you call setState() on a State object for a widget that no longer appears in the widget tree (e.g., whose parent widget no longer includes the widget in its build). This error can occur when code calls setState() from a timer or an animation callback.
+The preferred solution is to cancel the timer or stop listening to the animation in the dispose() callback. Another solution is to check the "mounted" property of this object before calling setState() to ensure the object is still in the tree.
+This error might indicate a memory leak if setState() is being called because another object is retaining a reference to this State object after it has been removed from the tree. To avoid memory leaks, consider breaking the reference to this object during dispose().</t>
+        </is>
+      </c>
+      <c r="C763" t="inlineStr">
+        <is>
+          <t xml:space="preserve">dart-sdk/lib/_internal/js_dev_runtime/private/ddc_runtime/errors.dart 297:3  throw_
+packages/flutter/src/widgets/framework.dart 1167:9                           &lt;fn&gt;
+packages/flutter/src/widgets/framework.dart 1201:14                          setState
+packages/bachelor_flutter_crush/controllers/unity/unity_screen.dart 77:5     loadCoins
+dart-sdk/lib/_internal/js_dev_runtime/patch/async_patch.dart 45:50           &lt;fn&gt;
+dart-sdk/lib/async/zone.dart 1407:47                                         _rootRunUnary
+dart-sdk/lib/async/zone.dart 1308:19                                         runUnary
+dart-sdk/lib/async/future_impl.dart 162:18                                   handleValue
+dart-sdk/lib/async/future_impl.dart 838:44                                   handleValueCallback
+dart-sdk/lib/async/future_impl.dart 867:13                                   _propagateToListeners
+dart-sdk/lib/async/future_impl.dart 464:9                                    &lt;fn&gt;
+dart-sdk/lib/async/zone.dart 1399:13                                         _rootRun
+dart-sdk/lib/async/zone.dart 1301:19                                         run
+dart-sdk/lib/async/zone.dart 1209:7                                          runGuarded
+dart-sdk/lib/async/zone.dart 1249:23                                         callback
+dart-sdk/lib/async/schedule_microtask.dart 40:11                             _microtaskLoop
+dart-sdk/lib/async/schedule_microtask.dart 49:5                              _startMicrotaskLoop
+dart-sdk/lib/_internal/js_dev_runtime/patch/async_patch.dart 181:7           &lt;fn&gt;
+</t>
+        </is>
+      </c>
+      <c r="D763" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:12:05.098</t>
+        </is>
+      </c>
+      <c r="E763" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C764" t="inlineStr"/>
+      <c r="D764" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:24:49.632</t>
+        </is>
+      </c>
+      <c r="E764" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (Linux; Android 6.0; Nexus 5 Build/MRA58N) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/121.0.0.0 Mobile Safari/537.36</t>
+        </is>
+      </c>
+      <c r="F764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C765" t="inlineStr"/>
+      <c r="D765" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:14.147</t>
+        </is>
+      </c>
+      <c r="E765" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C766" t="inlineStr"/>
+      <c r="D766" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:14.181</t>
+        </is>
+      </c>
+      <c r="E766" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C767" t="inlineStr"/>
+      <c r="D767" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:14.207</t>
+        </is>
+      </c>
+      <c r="E767" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C768" t="inlineStr"/>
+      <c r="D768" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:14.235</t>
+        </is>
+      </c>
+      <c r="E768" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C769" t="inlineStr"/>
+      <c r="D769" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:14.259</t>
+        </is>
+      </c>
+      <c r="E769" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C770" t="inlineStr"/>
+      <c r="D770" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:14.282</t>
+        </is>
+      </c>
+      <c r="E770" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C771" t="inlineStr"/>
+      <c r="D771" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:15.134</t>
+        </is>
+      </c>
+      <c r="E771" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:09-DfmWkxBcYZG30bp</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C772" t="inlineStr"/>
+      <c r="D772" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:25:15.167</t>
+        </is>
+      </c>
+      <c r="E772" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C773" t="inlineStr"/>
+      <c r="D773" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:56.853</t>
+        </is>
+      </c>
+      <c r="E773" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C774" t="inlineStr"/>
+      <c r="D774" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:56.888</t>
+        </is>
+      </c>
+      <c r="E774" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C775" t="inlineStr"/>
+      <c r="D775" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:56.909</t>
+        </is>
+      </c>
+      <c r="E775" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C776" t="inlineStr"/>
+      <c r="D776" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:56.932</t>
+        </is>
+      </c>
+      <c r="E776" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C777" t="inlineStr"/>
+      <c r="D777" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:56.974</t>
+        </is>
+      </c>
+      <c r="E777" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C778" t="inlineStr"/>
+      <c r="D778" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.001</t>
+        </is>
+      </c>
+      <c r="E778" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C779" t="inlineStr"/>
+      <c r="D779" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.050</t>
+        </is>
+      </c>
+      <c r="E779" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C780" t="inlineStr"/>
+      <c r="D780" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.096</t>
+        </is>
+      </c>
+      <c r="E780" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C781" t="inlineStr"/>
+      <c r="D781" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.136</t>
+        </is>
+      </c>
+      <c r="E781" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C782" t="inlineStr"/>
+      <c r="D782" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.164</t>
+        </is>
+      </c>
+      <c r="E782" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C783" t="inlineStr"/>
+      <c r="D783" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.192</t>
+        </is>
+      </c>
+      <c r="E783" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C784" t="inlineStr"/>
+      <c r="D784" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.226</t>
+        </is>
+      </c>
+      <c r="E784" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F784" t="inlineStr"/>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C785" t="inlineStr"/>
+      <c r="D785" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:45:57.274</t>
+        </is>
+      </c>
+      <c r="E785" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F785" t="inlineStr"/>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C786" t="inlineStr"/>
+      <c r="D786" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:08.878</t>
+        </is>
+      </c>
+      <c r="E786" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F786" t="inlineStr"/>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C787" t="inlineStr"/>
+      <c r="D787" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:08.910</t>
+        </is>
+      </c>
+      <c r="E787" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F787" t="inlineStr"/>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C788" t="inlineStr"/>
+      <c r="D788" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:08.932</t>
+        </is>
+      </c>
+      <c r="E788" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F788" t="inlineStr"/>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C789" t="inlineStr"/>
+      <c r="D789" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:08.965</t>
+        </is>
+      </c>
+      <c r="E789" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F789" t="inlineStr"/>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C790" t="inlineStr"/>
+      <c r="D790" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:08.991</t>
+        </is>
+      </c>
+      <c r="E790" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F790" t="inlineStr"/>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C791" t="inlineStr"/>
+      <c r="D791" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.013</t>
+        </is>
+      </c>
+      <c r="E791" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F791" t="inlineStr"/>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C792" t="inlineStr"/>
+      <c r="D792" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.038</t>
+        </is>
+      </c>
+      <c r="E792" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F792" t="inlineStr"/>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C793" t="inlineStr"/>
+      <c r="D793" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.059</t>
+        </is>
+      </c>
+      <c r="E793" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F793" t="inlineStr"/>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C794" t="inlineStr"/>
+      <c r="D794" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.081</t>
+        </is>
+      </c>
+      <c r="E794" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F794" t="inlineStr"/>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C795" t="inlineStr"/>
+      <c r="D795" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.118</t>
+        </is>
+      </c>
+      <c r="E795" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F795" t="inlineStr"/>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C796" t="inlineStr"/>
+      <c r="D796" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.145</t>
+        </is>
+      </c>
+      <c r="E796" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F796" t="inlineStr"/>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C797" t="inlineStr"/>
+      <c r="D797" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.189</t>
+        </is>
+      </c>
+      <c r="E797" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F797" t="inlineStr"/>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C798" t="inlineStr"/>
+      <c r="D798" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.210</t>
+        </is>
+      </c>
+      <c r="E798" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F798" t="inlineStr"/>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C799" t="inlineStr"/>
+      <c r="D799" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.235</t>
+        </is>
+      </c>
+      <c r="E799" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F799" t="inlineStr"/>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C800" t="inlineStr"/>
+      <c r="D800" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.260</t>
+        </is>
+      </c>
+      <c r="E800" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F800" t="inlineStr"/>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C801" t="inlineStr"/>
+      <c r="D801" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:09.284</t>
+        </is>
+      </c>
+      <c r="E801" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F801" t="inlineStr"/>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C802" t="inlineStr"/>
+      <c r="D802" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.009</t>
+        </is>
+      </c>
+      <c r="E802" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F802" t="inlineStr"/>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C803" t="inlineStr"/>
+      <c r="D803" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.034</t>
+        </is>
+      </c>
+      <c r="E803" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F803" t="inlineStr"/>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C804" t="inlineStr"/>
+      <c r="D804" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.052</t>
+        </is>
+      </c>
+      <c r="E804" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F804" t="inlineStr"/>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C805" t="inlineStr"/>
+      <c r="D805" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.070</t>
+        </is>
+      </c>
+      <c r="E805" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F805" t="inlineStr"/>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C806" t="inlineStr"/>
+      <c r="D806" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.087</t>
+        </is>
+      </c>
+      <c r="E806" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F806" t="inlineStr"/>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C807" t="inlineStr"/>
+      <c r="D807" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.107</t>
+        </is>
+      </c>
+      <c r="E807" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F807" t="inlineStr"/>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C808" t="inlineStr"/>
+      <c r="D808" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.126</t>
+        </is>
+      </c>
+      <c r="E808" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F808" t="inlineStr"/>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C809" t="inlineStr"/>
+      <c r="D809" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.152</t>
+        </is>
+      </c>
+      <c r="E809" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F809" t="inlineStr"/>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C810" t="inlineStr"/>
+      <c r="D810" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.171</t>
+        </is>
+      </c>
+      <c r="E810" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F810" t="inlineStr"/>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C811" t="inlineStr"/>
+      <c r="D811" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.192</t>
+        </is>
+      </c>
+      <c r="E811" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F811" t="inlineStr"/>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C812" t="inlineStr"/>
+      <c r="D812" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.234</t>
+        </is>
+      </c>
+      <c r="E812" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F812" t="inlineStr"/>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C813" t="inlineStr"/>
+      <c r="D813" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.266</t>
+        </is>
+      </c>
+      <c r="E813" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F813" t="inlineStr"/>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>testVersion-V02-24-01-25–14:42-QeUB8IuNrAVmTZj</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>Assertion failed: org-dartlang-sdk:///lib/_engine/engine/window.dart:91:12
+!isDisposed
+"Trying to render a disposed EngineFlutterView."</t>
+        </is>
+      </c>
+      <c r="C814" t="inlineStr"/>
+      <c r="D814" t="inlineStr">
+        <is>
+          <t>2024-01-25T14:46:38.298</t>
+        </is>
+      </c>
+      <c r="E814" t="inlineStr">
+        <is>
+          <t>Mozilla/5.0 (iPhone; CPU iPhone OS 16_6 like Mac OS X) AppleWebKit/605.1.15 (KHTML, like Gecko) Version/16.6 Mobile/15E148 Safari/604.1</t>
+        </is>
+      </c>
+      <c r="F814" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
